--- a/excel/합정_processed.xlsx
+++ b/excel/합정_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,64 +468,64 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>바우리</t>
+          <t>미미본관</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>서울 마포구 토정로3길 17 지하</t>
+          <t>서울 마포구 월드컵로1길 48 지하1층</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0507-1319-0813</t>
+          <t>010-6713-6951</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>디엠</t>
+          <t>토끼다이닝</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>서울 마포구 토정로3안길 18 지하1층 매장입니다</t>
+          <t>서울 마포구 월드컵로1길 48 지하1층</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:40 - 01:00', 'last_order_time': '00:30'}), ('화', {'open_time': '17:40 - 01:00', 'last_order_time': '00:30'}), ('수', {'open_time': '17:40 - 01:00', 'last_order_time': '00:30'}), ('목', {'open_time': '17:40 - 01:00', 'last_order_time': '00:30'}), ('금', {'open_time': '17:40 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '16:10 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '16:10 - 01:00', 'last_order_time': '00:30'})]</t>
+          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '16:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '16:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '16:00 - 23:00', 'last_order_time': '22:00'})]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0507-1329-6429</t>
+          <t>010-6713-6951</t>
         </is>
       </c>
     </row>
@@ -606,22 +606,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 50 2층</t>
+          <t>서울 마포구 양화로6길 14 1층 코너점포</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('화', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('수', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('목', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:20'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:20'}), ('일', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'})]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0507-1338-4681</t>
+          <t>010-9585-7805</t>
         </is>
       </c>
     </row>
@@ -638,22 +638,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 50 2층</t>
+          <t>서울 마포구 독막로2길 34 1층 아소토</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '22:30'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '22:30'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '22:30'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '22:30'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '22:30'}), ('일', {'open_time': '17:00 - 23:00', 'last_order_time': '21:30'})]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0507-1338-4681</t>
+          <t>0507-1345-9622</t>
         </is>
       </c>
     </row>
@@ -670,66 +670,66 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 50 2층</t>
+          <t>서울 마포구 독막로2길 34 1층 아소토</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0507-1338-4681</t>
+          <t>0507-1345-9622</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>심야식당 오밤중</t>
+          <t>이키</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 50 2층</t>
+          <t>서울 마포구 성지길 36-20 1층</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0507-1338-4681</t>
+          <t>010-9915-5915</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>이키</t>
+          <t>심야식당 오밤중</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 50 2층</t>
+          <t>서울 마포구 포은로2가길 6 1층</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0507-1338-4681</t>
+          <t>0507-1412-8824</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 50 2층</t>
+          <t>서울 마포구 포은로2가길 6 1층</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -781,61 +781,61 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0507-1338-4681</t>
+          <t>0507-1412-8824</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>바우리</t>
+          <t>낮달</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 독막로5길 8 1층 낮달</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>0507-1312-0597</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>디엠</t>
+          <t>금강산호프</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 독막로5길 8 1층 낮달</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -845,78 +845,78 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>0507-1312-0597</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>썬키친</t>
+          <t>과일가게</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 동교로 40</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>02-336-3859</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>디엠</t>
+          <t>카사블랑코</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 양화로1길 29 1층</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>0507-1484-9596</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>미나리</t>
+          <t>호랑이</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -926,61 +926,61 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 양화로1길 29 1층</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>0507-1484-9596</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>아소토</t>
+          <t>시소</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 독막로 43-1 3층 시소</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>0507-1412-8744</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>호맥 합정점</t>
+          <t>색다른한잔</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -990,29 +990,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 독막로 43-1 3층 시소</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>0507-1412-8744</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>심야식당 오밤중</t>
+          <t>넉탐</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 양화로1길 25</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1037,14 +1037,14 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>0507-1345-5640</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>이키</t>
+          <t>히게쯔라</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1054,125 +1054,125 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 양화로1길 25</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>0507-1345-5640</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>깊은숲</t>
+          <t>형제집</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 포은로 39 1층 형제집</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('일', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'})]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>0507-1489-2230</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>부침개바 지리</t>
+          <t>윤슬</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>전통,민속주점</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 포은로 39 1층 형제집</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>0507-1489-2230</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>그럼</t>
+          <t>남자식탁</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 월드컵로3길 31-8 1층 남자식탁</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('수', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('토', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>0507-1324-3035</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>네즈</t>
+          <t>카즈</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1182,61 +1182,61 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 월드컵로3길 31-8 1층 남자식탁</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>0507-1324-3035</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>한길비스트로</t>
+          <t>펍프리바다727</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 양화로6길 38 3F</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 00:30', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 00:30', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 00:30', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '17:00 - 23:30', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>02-525-0911</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>카에루</t>
+          <t>준지의아름다운하루</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1246,108 +1246,108 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 양화로6길 38 3F</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>02-525-0911</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>피공일</t>
+          <t>슬오라</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 포은로 14 1층</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>0507-1478-7377</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>문학살롱 초고</t>
+          <t>달리</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 양화로6길 86 2층</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>0507-1381-4123</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>꺼꾸잽이 초장집 합정점</t>
+          <t>익순</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>생선회</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 양화로6길 86 2층</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1357,14 +1357,14 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>0507-1381-4123</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>주행</t>
+          <t>우식궁</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1374,44 +1374,44 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 양화로6길 92 2층 우식궁</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 06:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 06:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>0507-1348-2543</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>르파르</t>
+          <t>약수터</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>포장마차</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 양화로6길 92 2층 우식궁</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1421,46 +1421,46 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>0507-1348-2543</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>시샤스테이</t>
+          <t>카즈</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로3길 31-5 2층</t>
+          <t>서울 마포구 월드컵로3길 44</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('토', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>02-6396-3646</t>
+          <t>02-335-1631</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>자색휴일</t>
+          <t>양화진</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1470,12 +1470,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로3길 31-5 2층</t>
+          <t>서울 마포구 월드컵로3길 44</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1485,61 +1485,61 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>02-6396-3646</t>
+          <t>02-335-1631</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>루퍼 라운지</t>
+          <t>경복너랑나랑호프 합정점</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로3길 31-5 2층</t>
+          <t>서울 마포구 양화로3길 15</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('토', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'})]</t>
+          <t>[('월', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>02-6396-3646</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Vineworks Korea</t>
+          <t>원앙</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로3길 31-5 2층</t>
+          <t>서울 마포구 양화로3길 15</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1549,125 +1549,125 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>02-6396-3646</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>포차 프리</t>
+          <t>어른이대공원</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>포장마차</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로3길 31-5 2층</t>
+          <t>서울 마포구 양화로6길 100 1층</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('토', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'})]</t>
+          <t>[('월', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '14:00 - 06:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 06:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>02-6396-3646</t>
+          <t>0507-1431-3352</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>대박노가리</t>
+          <t>Meld by kichijoji</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로3길 31-5 2층</t>
+          <t>서울 마포구 성지길 55</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>02-6396-3646</t>
+          <t>02-332-6552</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>바울프</t>
+          <t>더뷰 합정</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로3길 31-5 2층</t>
+          <t>서울 마포구 양화로6길 76 2층</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('토', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>02-6396-3646</t>
+          <t>0507-1432-1307</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>달의다락</t>
+          <t>Ms오뎅바</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로3길 31-5 2층</t>
+          <t>서울 마포구 월드컵로1길 52</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1677,61 +1677,61 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>02-6396-3646</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Non mainstreamers</t>
+          <t>얼맥당 합정점</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로3길 31-5 2층</t>
+          <t>서울 마포구 월드컵로1길 52</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('토', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'})]</t>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '14:00 - 03:00', 'last_order_time': '02:30'}), ('목', {'open_time': '14:00 - 03:00', 'last_order_time': '02:30'}), ('금', {'open_time': '14:00 - 05:00', 'last_order_time': '04:30'}), ('토', {'open_time': '14:00 - 05:00', 'last_order_time': '04:30'}), ('일', {'open_time': '14:00 - 03:00', 'last_order_time': '02:30'})]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>02-6396-3646</t>
+          <t>070-4189-7574</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>구름공방 합정역점</t>
+          <t>육전면사무소 합정역점</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>서울 마포구 월드컵로3길 31-5 2층</t>
+          <t>서울 마포구 월드컵로1길 14 B116호 얼맥당</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1741,174 +1741,174 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>02-6396-3646</t>
+          <t>070-4189-7574</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>소주방</t>
+          <t>바우리</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 266-12 1층,2층</t>
+          <t>서울 마포구 토정로3길 17 지하</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0507-1351-0896</t>
+          <t>0507-1319-0813</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>맥주왕명주</t>
+          <t>와인동산</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 266-12 1층,2층</t>
+          <t>서울 마포구 포은로 21 1층 와인동산</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0507-1351-0896</t>
+          <t>0507-1366-3589</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>쿠시노주방</t>
+          <t>파코</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 266-12 1층,2층</t>
+          <t>서울 마포구 월드컵로3길 14 마포한강2차푸르지오 1층 101호</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0507-1351-0896</t>
+          <t>0507-1336-7309</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>홍콩포차</t>
+          <t>명월문샤인</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 266-12 1층,2층</t>
+          <t>서울 마포구 독막로6길 18 1층</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'})]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0507-1351-0896</t>
+          <t>0507-1481-1661</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>전주상회</t>
+          <t>사는게꽃같네</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 266-12 1층,2층</t>
+          <t>서울 마포구 독막로6길 18 1층</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0507-1351-0896</t>
+          <t>0507-1481-1661</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>훈민정음 서울합정점</t>
+          <t>토끼다이닝</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1918,150 +1918,6806 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 266-12 1층,2층</t>
+          <t>서울 마포구 독막로5길 5 2층</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '12:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0507-1351-0896</t>
+          <t>0507-1375-2431</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>상수주택</t>
+          <t>교호</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 266-12 1층,2층</t>
+          <t>서울 마포구 토정로2길 6-9 101호</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 23:00', 'last_order_time': '22:30'}), ('수', {'open_time': '16:00 - 23:00', 'last_order_time': '22:30'}), ('목', {'open_time': '16:00 - 23:00', 'last_order_time': '22:30'}), ('금', {'open_time': '16:00 - 23:00', 'last_order_time': '22:30'}), ('토', {'open_time': '12:00 - 22:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('일', {'open_time': '12:00 - 22:00', 'last_order_time': '15:00 - 17:00 브레이크타임'})]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0507-1351-0896</t>
+          <t>0507-1370-4171</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>락소울윙</t>
+          <t>교집합</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>바(BAR)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 266-12 1층,2층</t>
+          <t>서울 마포구 독막로 14 상록수빌딩 지하1층</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0507-1351-0896</t>
+          <t>0507-1371-8199</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>연주방</t>
+          <t>따로집</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>전통,민속주점</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 266-12 1층,2층</t>
+          <t>서울 마포구 양화진길 6 1층 따로집</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0507-1351-0896</t>
+          <t>0507-1325-2455</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>라라와 케이</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화진길 6 1층 따로집</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0507-1325-2455</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>서울브루어리 합정</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로3안길 10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '13:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '13:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0507-1311-0915</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>컴피</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로3안길 10</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0507-1311-0915</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>오프모먼트</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>서울 마포구 성지길 35 오프모먼트</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>010-9416-7634</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>델리카테슨</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로3길 19 1층</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '11:30 - 23:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('금', {'open_time': '11:30 - 23:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('토', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 17:00 브레이크타임'}), ('일', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 17:00 브레이크타임'})]</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0507-1444-3141</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>미미본관</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로3길 19 1층</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0507-1444-3141</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>토끼다이닝</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로5길 5 2층</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '12:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'})]</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0507-1375-2431</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>썬키친</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 50 2층</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'})]</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0507-1338-4681</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>디엠</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 50 2층</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0507-1338-4681</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>미나리</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 14 1층 코너점포</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('화', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('수', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('목', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:20'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:20'}), ('일', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'})]</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>010-9585-7805</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>아소토</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로2길 34 1층 아소토</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '22:30'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '22:30'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '22:30'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '22:30'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '22:30'}), ('일', {'open_time': '17:00 - 23:00', 'last_order_time': '21:30'})]</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0507-1345-9622</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>호맥 합정점</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로2길 34 1층 아소토</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0507-1345-9622</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>이키</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>서울 마포구 성지길 36-20 1층</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'})]</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>010-9915-5915</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>심야식당 오밤중</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로2가길 6 1층</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0507-1412-8824</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>깊은숲</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로2가길 6 1층</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0507-1412-8824</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>낮달</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로5길 8 1층 낮달</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0507-1312-0597</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>금강산호프</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로5길 8 1층 낮달</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0507-1312-0597</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>과일가게</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 40</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>02-336-3859</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>카사블랑코</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로1길 29 1층</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0507-1484-9596</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>호랑이</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로1길 29 1층</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0507-1484-9596</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>시소</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 43-1 3층 시소</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0507-1412-8744</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>색다른한잔</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 43-1 3층 시소</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0507-1412-8744</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>넉탐</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로1길 25</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0507-1345-5640</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>히게쯔라</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로1길 25</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0507-1345-5640</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>형제집</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 39 1층 형제집</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('일', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'})]</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0507-1489-2230</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>윤슬</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 39 1층 형제집</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0507-1489-2230</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>남자식탁</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 31-8 1층 남자식탁</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('수', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('토', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0507-1324-3035</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>카즈</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 31-8 1층 남자식탁</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0507-1324-3035</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>펍프리바다727</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 38 3F</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 00:30', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 00:30', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 00:30', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '17:00 - 23:30', 'last_order_time': '23:00'})]</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>02-525-0911</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>준지의아름다운하루</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 38 3F</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>02-525-0911</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>슬오라</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 14 1층</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0507-1478-7377</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>달리</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 86 2층</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0507-1381-4123</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>익순</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 86 2층</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0507-1381-4123</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>우식궁</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 92 2층 우식궁</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 06:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 06:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0507-1348-2543</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>약수터</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 92 2층 우식궁</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0507-1348-2543</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>카즈</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 44</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>02-335-1631</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>양화진</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 44</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>02-335-1631</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>경복너랑나랑호프 합정점</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로3길 15</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>원앙</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로3길 15</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>어른이대공원</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 100 1층</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '14:00 - 06:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 06:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0507-1431-3352</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Meld by kichijoji</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>서울 마포구 성지길 55</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>02-332-6552</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>더뷰 합정</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 76 2층</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0507-1432-1307</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Ms오뎅바</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로1길 52</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>얼맥당 합정점</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로1길 52</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '14:00 - 03:00', 'last_order_time': '02:30'}), ('목', {'open_time': '14:00 - 03:00', 'last_order_time': '02:30'}), ('금', {'open_time': '14:00 - 05:00', 'last_order_time': '04:30'}), ('토', {'open_time': '14:00 - 05:00', 'last_order_time': '04:30'}), ('일', {'open_time': '14:00 - 03:00', 'last_order_time': '02:30'})]</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>070-4189-7574</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>육전면사무소 합정역점</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로1길 14 B116호 얼맥당</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>070-4189-7574</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>바우리</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로3길 17 지하</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0507-1319-0813</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>와인동산</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 21 1층 와인동산</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0507-1366-3589</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>파코</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 14 마포한강2차푸르지오 1층 101호</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0507-1336-7309</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>명월문샤인</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로6길 18 1층</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'})]</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0507-1481-1661</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>사는게꽃같네</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로6길 18 1층</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0507-1481-1661</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>토끼다이닝</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로5길 5 2층</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '12:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'})]</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0507-1375-2431</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>교호</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로2길 6-9 101호</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 23:00', 'last_order_time': '22:30'}), ('수', {'open_time': '16:00 - 23:00', 'last_order_time': '22:30'}), ('목', {'open_time': '16:00 - 23:00', 'last_order_time': '22:30'}), ('금', {'open_time': '16:00 - 23:00', 'last_order_time': '22:30'}), ('토', {'open_time': '12:00 - 22:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('일', {'open_time': '12:00 - 22:00', 'last_order_time': '15:00 - 17:00 브레이크타임'})]</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0507-1370-4171</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>교집합</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 14 상록수빌딩 지하1층</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0507-1371-8199</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>따로집</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화진길 6 1층 따로집</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0507-1325-2455</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>라라와 케이</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화진길 6 1층 따로집</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0507-1325-2455</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>서울브루어리 합정</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로3안길 10</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '13:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '13:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0507-1311-0915</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>컴피</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로3안길 10</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0507-1330-4489</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>오프모먼트</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>서울 마포구 성지길 35 오프모먼트</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>010-9416-7634</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>델리카테슨</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로3길 19 1층</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '11:30 - 23:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('금', {'open_time': '11:30 - 23:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('토', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 17:00 브레이크타임'}), ('일', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 17:00 브레이크타임'})]</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0507-1444-3141</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>부침개바 지리</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로3길 19 1층</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '11:30 - 23:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('금', {'open_time': '11:30 - 23:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('토', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 17:00 브레이크타임'}), ('일', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 17:00 브레이크타임'})]</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0507-1444-3141</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>한길비스트로</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 13 A동 2층</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '23:30'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '23:30'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '23:30'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '23:30'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '00:30'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('일', {'open_time': '12:00 - 01:00', 'last_order_time': '15:00 - 17:00 브레이크타임'})]</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0507-1323-0915</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>네즈</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>서울 마포구 성지길 35 1층 네즈</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0507-1343-1175</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>그럼</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>서울 마포구 성지길 35 1층 네즈</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0507-1343-1175</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>피공일</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로 27 1층</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0507-1419-3668</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>카에루</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로1길 31 우진빌딩</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>02-325-5103</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>문학살롱 초고</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로1길 31 우진빌딩</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>02-325-5103</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>주행</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 31-3 1층 101호</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0507-1443-7998</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>주문합정</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 31-3 1층 101호</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0507-1443-7998</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>꺼꾸잽이 초장집 합정점</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>생선회</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 38 1층</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0507-1366-9685</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>히포</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로8길 5 지층</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 22:30', 'last_order_time': '21:30'}), ('수', {'open_time': '18:00 - 22:30', 'last_order_time': '21:30'}), ('목', {'open_time': '18:00 - 22:30', 'last_order_time': '21:30'}), ('금', {'open_time': '18:00 - 22:30', 'last_order_time': '21:30'}), ('토', {'open_time': '17:30 - 22:00', 'last_order_time': '21:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>010-3220-1015</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>르파르</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>서울 마포구 성지길 35 덕양빌딩 1층 르파르</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0507-1428-7887</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>비앤비</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>서울 마포구 성지길 35 덕양빌딩 1층 르파르</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0507-1428-7887</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>한송이꽃이</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 72 2층</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'})]</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0507-1320-5202</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>오티디 서울</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 72 2층</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0507-1320-5202</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>타테이와</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 31-6 201호</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0507-1390-6163</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>리슨</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로8길 7 삼성빌딩 1층</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>02-322-2436</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>믹스쳐</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로8길 7 삼성빌딩 1층</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>02-322-2436</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>논베</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 31-26 1층</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '23:30'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '23:30'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '23:30'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '23:30'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '23:30'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '23:30'})]</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0507-1322-3126</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>생활맥주 합정동점</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 28 1층</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>02-335-5500</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>LP 메모리</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 28 1층</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>02-335-5500</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>맹금류</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로 27-1 지1층 101호</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 06:00', 'last_order_time': '05:50'}), ('화', {'open_time': '18:00 - 06:00', 'last_order_time': '05:50'}), ('수', {'open_time': '18:00 - 06:00', 'last_order_time': '05:50'}), ('목', {'open_time': '18:00 - 06:00', 'last_order_time': '05:50'}), ('금', {'open_time': '18:00 - 06:00', 'last_order_time': '05:50'}), ('토', {'open_time': '18:00 - 06:00', 'last_order_time': '05:50'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0507-1436-5507</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>바람잔</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로1길 40 바람잔</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0507-1397-0113</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>쿠바포차 하바나24시</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로1길 40 바람잔</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0507-1397-0113</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>마카로니펑키클럽</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 32 통화보다 문자 메세지 주시면 빠르게 회신해 드려요..</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '19:30 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:30 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:30 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:30 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:30 - 02:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>010-4861-4820</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>오늘와인한잔 합정역점</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 6</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0507-1313-2483</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>브루브루</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 6</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0507-1313-2483</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>퓨전선술집</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로1길 7</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>02-335-4764</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>트릴로지</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로1길 7</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>02-335-4764</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>합정포차포차</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로1길 3 2층</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>철스뮤직</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로1길 3 2층</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0507-1364-1247</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>도쿠로야</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 56-1</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0507-1416-5442</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>펍트라이브</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 7</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>02-323-8440</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>펍프리바다727</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 7</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>02-323-8440</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>고봉이네</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 38 1층</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:10 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:10 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:10 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:10 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:10 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:10 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0507-1358-9050</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Vinyl Music</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 38 1층</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0507-1358-9050</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>블루스 하우스</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 42-1 2층 BLUES HOUSE</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>02-332-2408</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>향락</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 42-1 2층 BLUES HOUSE</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>02-332-2408</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>마디포차</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로 37 마디포차</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0507-1342-6826</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>LO.ONE highball</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 31-30</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 00:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 00:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 00:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 00:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0507-1440-5153</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>마이드링크뮤지엄</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 31-30</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0507-1440-5153</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>만평</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로 27 (합정동) 2층</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:30 - 01:00', 'last_order_time': '00:30'}), ('목', {'open_time': '19:30 - 01:00', 'last_order_time': '00:30'}), ('금', {'open_time': '19:30 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '19:30 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '19:30 - 01:00', 'last_order_time': '00:30'})]</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>02-0104-7559</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>호수꼬치 홍대합정점</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로 27 (합정동) 2층</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>02-0104-7559</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>펄포즈89</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>서울 마포구 토정로 27-1 1층</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0507-1377-0327</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>가제트술집 합정본점</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화진길 5 합정아파트</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 01:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:30 - 00:30', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>02-336-8865</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>서울무지개호프합정점</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화진길 5 합정아파트</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>02-336-8865</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>투다리 합정점</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로1길 5</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>02-333-9725</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>오스테리아칠</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로1길 5</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0507-1405-1831</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>펀비어킹 마포 메세나폴리스점</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로3길 10</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>02-338-8253</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>럭키스트라이크</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로3길 10</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>02-338-8253</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>시샤스테이</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 31-5 2층</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('토', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'})]</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>02-6396-3646</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>자색휴일</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 32 1층</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>02-6813-9851</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>루퍼 라운지</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 32 1층</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>02-6813-9851</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>대박노가리</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로1길 45</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:30 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:30 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:30 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:30 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>070-8238-6160</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>포차 프리</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로1길 45</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>070-8238-6160</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Vineworks Korea</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로8길 6 7층</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>02-2038-2220</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>바울프</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 31-3 1층</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>010-5219-5453</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>달의다락</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 31-3 1층</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>010-5219-5453</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Non mainstreamers</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 54</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '20:00 - 01:00', 'last_order_time': '00:30'}), ('수', {'open_time': '20:00 - 01:00', 'last_order_time': '00:30'}), ('목', {'open_time': '20:00 - 01:00', 'last_order_time': '00:30'}), ('금', {'open_time': '20:00 - 01:00', 'last_order_time': '00:30'}), ('토', {'open_time': '20:00 - 01:00', 'last_order_time': '00:30'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0507-1339-9607</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>시퀀스</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 25 1층</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 01:30', 'last_order_time': '01:00'}), ('수', {'open_time': '19:00 - 01:30', 'last_order_time': '01:00'}), ('목', {'open_time': '19:00 - 01:30', 'last_order_time': '01:00'}), ('금', {'open_time': '19:00 - 03:30', 'last_order_time': '03:00'}), ('토', {'open_time': '18:00 - 03:30', 'last_order_time': '03:00'}), ('일', {'open_time': '18:00 - 00:30', 'last_order_time': '00:00'})]</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0507-1382-9808</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>구름공방 합정역점</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 8 2층</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>02-335-4679</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>도화몽</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 8 2층</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>02-335-4679</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>오비베어 합정점</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 35</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>010-7631-7417</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>포차 5 3 0</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 35</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 23:50', 'last_order_time': '23:20'}), ('화', {'open_time': '17:00 - 23:50', 'last_order_time': '23:20'}), ('수', {'open_time': '17:00 - 23:50', 'last_order_time': '23:20'}), ('목', {'open_time': '17:00 - 23:50', 'last_order_time': '23:20'}), ('금', {'open_time': '17:00 - 23:50', 'last_order_time': '23:20'}), ('토', {'open_time': '17:00 - 23:00', 'last_order_time': '22:30'}), ('일', {'open_time': '17:00 - 23:00', 'last_order_time': '22:30'})]</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>070-8780-3018</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>화류 합정점</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 10 2층</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>070-8780-3018</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>오드키치맨션</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 8 지하1층</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '19:30 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:30 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:30 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:30 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:30 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:30 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:30 - 02:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0507-1423-1935</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>샹젤리제</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 55 1동</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '12:00 - 22:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '12:00 - 22:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '12:00 - 22:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '12:00 - 22:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '12:00 - 22:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '12:00 - 22:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0507-1489-2084</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>DAWN</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 55 1동</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0507-1489-2084</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>루나</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 90 2층</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'})]</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0507-1322-9924</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>카우카우펍 합정점</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 10</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>02-325-5353</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>오쿠보이자카야</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 10</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>02-325-5353</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>인디고 바</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로8길 3 삼성3빌딩 B1</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '20:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '20:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '20:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '20:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '20:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>02-322-4138</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>빙하</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 11 1층 104호</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0507-1411-0806</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>번가</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>유흥주점</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>서울 마포구 성지3길 69 지하1층</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0507-1353-1631</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>인</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 39 1층 빨간지붕 펍자까야”인”</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0507-1414-0050</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>삐친노가리</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 55</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>02-333-8292</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>노가리의숲</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 55</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>바다와농부</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 31-4</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>OB베어</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 31-4</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>offmoment</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 35</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>샤이닝스타</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로8길 15 1층</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '10:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '10:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '10:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '10:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '10:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '12:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>02-3141-0150</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>AMERICAN WHISKEY BAR</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 25</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>88 홀리데이</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 32</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>오마이핀초</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 32</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0507-1478-3360</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>한강</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 2</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>02-334-5633</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>이자카야준꼬</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 12 이자카야준꼬</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>아초</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 25</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>02-332-4637</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>전야제</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 50</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>바샤인II</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵로3길 31-6</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>줍</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 40</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>에너지</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 43-1 에너지</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>에드워드포차</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로 31-3 합정동K빌딩</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>02-6378-6545</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>워레버유고</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 32</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>배터리88 홍대점</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 32</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0507-1487-0883</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>발리 슈퍼스토어</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로19길 6 1층</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>0507-1487-0883</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>청화접</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 268 지하1층 청화접</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'})]</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0507-1333-6580</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>서교주담 합정</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로5길 46 1층 서교주담 합정</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>010-5656-9309</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>배터리88 2호점 홍대입구역점</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>서울 마포구 어울마당로5길 46 1층 서교주담 합정</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>010-5656-9309</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>붉은낙타</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>서울 마포구 잔다리로 20-11 1층 붉은낙타</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '17:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'})]</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>070-4833-5965</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>꼬요식당</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 275-1 꼬요식당</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'})]</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>0507-1410-8917</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>소주방</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 266-12 1층,2층</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>0507-1351-0896</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>맥주왕명주</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 266-12 1층,2층</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>0507-1351-0896</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>쿠시노주방</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 218-1 지하1층 쿠시노주방</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '16:00 - 01:00', 'last_order_time': '23:30'}), ('화', {'open_time': '16:00 - 01:00', 'last_order_time': '23:30'}), ('수', {'open_time': '16:00 - 01:00', 'last_order_time': '23:30'}), ('목', {'open_time': '16:00 - 01:00', 'last_order_time': '23:30'}), ('금', {'open_time': '16:00 - 02:00', 'last_order_time': '00:30'}), ('토', {'open_time': '15:00 - 02:00', 'last_order_time': '00:30'}), ('일', {'open_time': '16:00 - 01:00', 'last_order_time': '23:30'})]</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>010-7245-0503</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>홍콩포차</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 218-1 지하1층 쿠시노주방</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>010-7245-0503</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>전주상회</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 195 106호</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0507-1397-9777</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>훈민정음 서울합정점</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 195 106호</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>0507-1397-9777</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>상수주택</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로15길 19 2층 상수주택</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>0507-1313-4083</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
           <t>무채색</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>요리주점</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>서울 마포구 동교로 266-12 1층,2층</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0507-1351-0896</t>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로32길 19 3층</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'})]</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>0507-1354-4046</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>연주방</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 7 주차장 쪽 반지층</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>010-4346-4026</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>락소울윙</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 7 주차장 쪽 반지층</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>010-4346-4026</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>당인리극장</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 21 2층 당인리극장</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00 - 04:00', 'last_order_time': '03:00'}), ('토', {'open_time': '18:00 - 04:00', 'last_order_time': '03:00'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'})]</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>070-4065-6602</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>미식가주택</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 21 2층 당인리극장</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>070-4065-6602</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>참새방앗간</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>서울 영등포구 당산로52길 8</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>02-2675-1199</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>금호동매운닭발</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>서울 영등포구 당산로52길 8</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>02-2675-1199</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>지하102호 1호점</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 57-22 지층 102호</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '15:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '15:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '15:00 - 03:00', 'last_order_time': '02:00'})]</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>0507-1308-8648</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>양화포차</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>서울 마포구 양화로6길 57-22 지층 102호</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>0507-1308-8648</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>서교주담 망원</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 82 1층</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>010-2633-7974</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>조선시대</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>서울 마포구 홍익로3길 44 지하1층</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>0507-1478-1045</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>몽주방</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로7길 20 1층</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>0507-1364-7875</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>이제</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 256-3 미소빌딩 1층</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'})]</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>0507-1414-1599</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>주무대</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로3길 32</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>0507-1440-1221</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>연술집</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로3길 32</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>0507-1440-1221</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>홍대공감</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로17길 10 2F</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>0507-1319-1675</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>정주일가</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 66 1층 정주일가</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'})]</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>0507-1396-4083</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>동동포차DDPC</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 30 1층</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>02-336-0358</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>복덕방내추럴막걸리집</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 30 1층</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>070-8864-1414</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>개화기요정</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로8길 5</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'})]</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>070-8864-1414</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>심야식당밤</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29바길 16 반지층 심야식당밤</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>0507-1383-3321</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>우규</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로29바길 16 반지층 심야식당밤</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>0507-1383-3321</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>사카바 토리야</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>서울 마포구 독막로3길 38 2층</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'})]</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>0507-1353-4741</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>계담다</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '12:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '12:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '12:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '12:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '12:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '12:00 - 01:00', 'last_order_time': '00:00'})]</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>0507-1321-1881</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>너랑나랑호프</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>0507-1321-1881</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>당산의밤</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>서울 영등포구 당산로 233 홍익빌딩1층</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>02-2069-0585</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>미자카야</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로8길 5 1층</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>0507-1362-7637</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>서플라이디팟</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>서울 마포구 잔다리로 4 2층</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>010-9311-2431</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>슈퍼룸방구</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>서울 마포구 잔다리로 4 2층</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>010-9311-2431</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>코지로</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>서울 영등포구 선유동2로 73 3층 코지로</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>0507-1412-2933</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>심야식당하스</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>서울 마포구 연희로1길 19</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>070-8888-0198</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>몽주막</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>서울 마포구 연희로1길 19</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>070-8888-0198</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>쏘슐랭</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 9 상가1층</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>0507-1397-8483</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>시실리</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 9 상가1층</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>0507-1397-8483</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>바다약방</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 266-11 1층 바다약방</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'})]</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>0507-1420-9015</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>벽돌포차 홍대점</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>서울 마포구 와우산로17길 5</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 05:00', 'last_order_time': '04:00'}), ('화', {'open_time': '17:00 - 05:00', 'last_order_time': '04:00'}), ('수', {'open_time': '17:00 - 05:00', 'last_order_time': '04:00'}), ('목', {'open_time': '17:00 - 05:00', 'last_order_time': '04:00'}), ('금', {'open_time': '18:00 - 06:00', 'last_order_time': '05:00'}), ('토', {'open_time': '17:00 - 06:00', 'last_order_time': '05:00'}), ('일', {'open_time': '17:00 - 05:00', 'last_order_time': '04:00'})]</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>0507-1404-8881</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>콘티키빠</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 227-1 지하 1층</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '17:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'})]</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>010-2105-3760</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>무채색 숲</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 227-1 지하 1층</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>010-2105-3760</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>웅장</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>서울 마포구 포은로 73 1층</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>0507-1308-6389</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>당산곶</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>서울 영등포구 당산로51길 1 1층</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>02-2677-5110</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>슬슬</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>서울 영등포구 당산로51길 1 1층</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>02-2677-5110</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>다이닝 야경</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 189-6 101호</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '16:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'})]</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>0507-1367-7780</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>무명요리사</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 189-6 101호</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>0507-1367-7780</t>
         </is>
       </c>
     </row>

--- a/excel/합정_processed.xlsx
+++ b/excel/합정_processed.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '16:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '16:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '16:00 - 23:00', 'last_order_time': '22:00'})]</t>
+          <t>[('월', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '16:00-25:00', 'last_order_time': '00:00'}), ('토', {'open_time': '16:00-25:00', 'last_order_time': '00:00'}), ('일', {'open_time': '16:00-23:00', 'last_order_time': '22:00'})]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '12:00-24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('화', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('수', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('목', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:20'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:20'}), ('일', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'})]</t>
+          <t>[('월', {'open_time': '17:00-36:30', 'last_order_time': '11:50'}), ('화', {'open_time': '17:00-36:30', 'last_order_time': '11:50'}), ('수', {'open_time': '17:00-36:30', 'last_order_time': '11:50'}), ('목', {'open_time': '17:00-36:30', 'last_order_time': '11:50'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '01:20'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '01:20'}), ('일', {'open_time': '17:00-36:30', 'last_order_time': '11:50'})]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '22:30'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '22:30'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '22:30'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '22:30'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '22:30'}), ('일', {'open_time': '17:00 - 23:00', 'last_order_time': '21:30'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '22:30'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '22:30'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '22:30'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '22:30'}), ('토', {'open_time': '17:00-24:00', 'last_order_time': '22:30'}), ('일', {'open_time': '17:00-23:00', 'last_order_time': '21:30'})]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-25:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00-25:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00-25:00', 'last_order_time': '00:00'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('일', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('월(7/17)', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00-25:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '14:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('일', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-27:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00-27:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00-27:00', 'last_order_time': '01:30'}), ('금', {'open_time': '18:00-27:00', 'last_order_time': '01:30'}), ('토', {'open_time': '18:00-27:00', 'last_order_time': '01:30'}), ('일', {'open_time': '18:00-27:00', 'last_order_time': '01:30'})]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('수', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('토', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:30-23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '17:30-23:00', 'last_order_time': '22:00'}), ('수', {'open_time': '17:30-23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:30-23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:30-23:00', 'last_order_time': '22:00'}), ('토', {'open_time': '17:00-23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 00:30', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 00:30', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 00:30', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '17:00 - 23:30', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-24:30', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00-24:30', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00-24:30', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '01:30'}), ('일', {'open_time': '17:00-23:30', 'last_order_time': '23:00'}), ('월(7/17)', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-25:00', 'last_order_time': '00:30'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '00:30'}), ('목', {'open_time': '18:00-25:00', 'last_order_time': '00:30'}), ('금', {'open_time': '18:00-25:00', 'last_order_time': '00:30'}), ('토', {'open_time': '18:00-25:00', 'last_order_time': '00:30'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일(7/16)', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '11:30-28:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '11:30-28:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '11:30-28:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '11:30-28:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '11:30-28:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '11:30-28:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 06:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 06:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-30:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-30:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '14:00 - 06:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 06:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '14:00-30:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00-30:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '14:00 - 03:00', 'last_order_time': '02:30'}), ('목', {'open_time': '14:00 - 03:00', 'last_order_time': '02:30'}), ('금', {'open_time': '14:00 - 05:00', 'last_order_time': '04:30'}), ('토', {'open_time': '14:00 - 05:00', 'last_order_time': '04:30'}), ('일', {'open_time': '14:00 - 03:00', 'last_order_time': '02:30'})]</t>
+          <t>[('월', {'open_time': '17:00-26:00', 'last_order_time': '01:30'}), ('화', {'open_time': '17:00-26:00', 'last_order_time': '01:30'}), ('수', {'open_time': '14:00-27:00', 'last_order_time': '02:30'}), ('목', {'open_time': '14:00-27:00', 'last_order_time': '02:30'}), ('금', {'open_time': '14:00-29:00', 'last_order_time': '04:30'}), ('토', {'open_time': '14:00-29:00', 'last_order_time': '04:30'}), ('일', {'open_time': '14:00-27:00', 'last_order_time': '02:30'})]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '23:30'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '23:30'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '23:30'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '23:30'}), ('토', {'open_time': '18:00-24:00', 'last_order_time': '23:30'}), ('일', {'open_time': '18:00-24:00', 'last_order_time': '23:30'})]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '12:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '12:00-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '12:00-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '12:00-24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 23:00', 'last_order_time': '22:30'}), ('수', {'open_time': '16:00 - 23:00', 'last_order_time': '22:30'}), ('목', {'open_time': '16:00 - 23:00', 'last_order_time': '22:30'}), ('금', {'open_time': '16:00 - 23:00', 'last_order_time': '22:30'}), ('토', {'open_time': '12:00 - 22:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('일', {'open_time': '12:00 - 22:00', 'last_order_time': '15:00 - 17:00 브레이크타임'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00-23:00', 'last_order_time': '22:30'}), ('수', {'open_time': '16:00-23:00', 'last_order_time': '22:30'}), ('목', {'open_time': '16:00-23:00', 'last_order_time': '22:30'}), ('금', {'open_time': '16:00-23:00', 'last_order_time': '22:30'}), ('토', {'open_time': '12:00-22:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('일', {'open_time': '12:00-22:00', 'last_order_time': '15:00 - 17:00 브레이크타임'})]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '13:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '13:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '13:00-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '13:00-24:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '13:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '11:30 - 23:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('금', {'open_time': '11:30 - 23:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('토', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 17:00 브레이크타임'}), ('일', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 17:00 브레이크타임'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '11:30-23:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('금', {'open_time': '11:30-23:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('토', {'open_time': '11:30-23:00', 'last_order_time': '16:00 - 17:00 브레이크타임'}), ('일', {'open_time': '11:30-23:00', 'last_order_time': '16:00 - 17:00 브레이크타임'}), ('수(7/12)', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '11:30-23:00', 'last_order_time': '16:00 - 17:00 브레이크타임'})]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '12:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '12:00-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '12:00-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '12:00-24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '12:00-24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('화', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('수', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('목', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:20'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:20'}), ('일', {'open_time': '17:00 - 12:30', 'last_order_time': '11:50'})]</t>
+          <t>[('월', {'open_time': '17:00-36:30', 'last_order_time': '11:50'}), ('화', {'open_time': '17:00-36:30', 'last_order_time': '11:50'}), ('수', {'open_time': '17:00-36:30', 'last_order_time': '11:50'}), ('목', {'open_time': '17:00-36:30', 'last_order_time': '11:50'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '01:20'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '01:20'}), ('일', {'open_time': '17:00-36:30', 'last_order_time': '11:50'})]</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '22:30'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '22:30'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '22:30'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '22:30'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '22:30'}), ('일', {'open_time': '17:00 - 23:00', 'last_order_time': '21:30'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '22:30'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '22:30'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '22:30'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '22:30'}), ('토', {'open_time': '17:00-24:00', 'last_order_time': '22:30'}), ('일', {'open_time': '17:00-23:00', 'last_order_time': '21:30'})]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-25:00', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00-25:00', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00-25:00', 'last_order_time': '00:00'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('일', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('월(7/17)', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00-25:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '14:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'}), ('일', {'open_time': '18:00 - 03:00', 'last_order_time': '01:30'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-27:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00-27:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00-27:00', 'last_order_time': '01:30'}), ('금', {'open_time': '18:00-27:00', 'last_order_time': '01:30'}), ('토', {'open_time': '18:00-27:00', 'last_order_time': '01:30'}), ('일', {'open_time': '18:00-27:00', 'last_order_time': '01:30'})]</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('수', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:30 - 23:00', 'last_order_time': '22:00'}), ('토', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:30-23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '17:30-23:00', 'last_order_time': '22:00'}), ('수', {'open_time': '17:30-23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:30-23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:30-23:00', 'last_order_time': '22:00'}), ('토', {'open_time': '17:00-23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 00:30', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00 - 00:30', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00 - 00:30', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '17:00 - 23:30', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-24:30', 'last_order_time': '00:00'}), ('수', {'open_time': '18:00-24:30', 'last_order_time': '00:00'}), ('목', {'open_time': '18:00-24:30', 'last_order_time': '00:00'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '01:30'}), ('일', {'open_time': '17:00-23:30', 'last_order_time': '23:00'}), ('월(7/17)', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '00:30'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-25:00', 'last_order_time': '00:30'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '00:30'}), ('목', {'open_time': '18:00-25:00', 'last_order_time': '00:30'}), ('금', {'open_time': '18:00-25:00', 'last_order_time': '00:30'}), ('토', {'open_time': '18:00-25:00', 'last_order_time': '00:30'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일(7/16)', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '11:30 - 04:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '11:30-28:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '11:30-28:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '11:30-28:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '11:30-28:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '11:30-28:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '11:30-28:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 06:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 06:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-30:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-30:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:30 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:30-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '14:00 - 06:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 06:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '14:00-30:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00-30:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '14:00 - 03:00', 'last_order_time': '02:30'}), ('목', {'open_time': '14:00 - 03:00', 'last_order_time': '02:30'}), ('금', {'open_time': '14:00 - 05:00', 'last_order_time': '04:30'}), ('토', {'open_time': '14:00 - 05:00', 'last_order_time': '04:30'}), ('일', {'open_time': '14:00 - 03:00', 'last_order_time': '02:30'})]</t>
+          <t>[('월', {'open_time': '17:00-26:00', 'last_order_time': '01:30'}), ('화', {'open_time': '17:00-26:00', 'last_order_time': '01:30'}), ('수', {'open_time': '14:00-27:00', 'last_order_time': '02:30'}), ('목', {'open_time': '14:00-27:00', 'last_order_time': '02:30'}), ('금', {'open_time': '14:00-29:00', 'last_order_time': '04:30'}), ('토', {'open_time': '14:00-29:00', 'last_order_time': '04:30'}), ('일', {'open_time': '14:00-27:00', 'last_order_time': '02:30'})]</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '23:30'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '23:30'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '23:30'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '23:30'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '23:30'}), ('토', {'open_time': '18:00-24:00', 'last_order_time': '23:30'}), ('일', {'open_time': '18:00-24:00', 'last_order_time': '23:30'})]</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '12:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '12:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '12:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '12:00-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '12:00-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '12:00-24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 23:00', 'last_order_time': '22:30'}), ('수', {'open_time': '16:00 - 23:00', 'last_order_time': '22:30'}), ('목', {'open_time': '16:00 - 23:00', 'last_order_time': '22:30'}), ('금', {'open_time': '16:00 - 23:00', 'last_order_time': '22:30'}), ('토', {'open_time': '12:00 - 22:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('일', {'open_time': '12:00 - 22:00', 'last_order_time': '15:00 - 17:00 브레이크타임'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00-23:00', 'last_order_time': '22:30'}), ('수', {'open_time': '16:00-23:00', 'last_order_time': '22:30'}), ('목', {'open_time': '16:00-23:00', 'last_order_time': '22:30'}), ('금', {'open_time': '16:00-23:00', 'last_order_time': '22:30'}), ('토', {'open_time': '12:00-22:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('일', {'open_time': '12:00-22:00', 'last_order_time': '15:00 - 17:00 브레이크타임'})]</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '14:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '14:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '13:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '13:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '13:00-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '13:00-24:00', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '13:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '11:30 - 23:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('금', {'open_time': '11:30 - 23:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('토', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 17:00 브레이크타임'}), ('일', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 17:00 브레이크타임'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '11:30-23:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('금', {'open_time': '11:30-23:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('토', {'open_time': '11:30-23:00', 'last_order_time': '16:00 - 17:00 브레이크타임'}), ('일', {'open_time': '11:30-23:00', 'last_order_time': '16:00 - 17:00 브레이크타임'}), ('수(7/12)', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '11:30-23:00', 'last_order_time': '16:00 - 17:00 브레이크타임'})]</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '11:30 - 23:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('금', {'open_time': '11:30 - 23:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('토', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 17:00 브레이크타임'}), ('일', {'open_time': '11:30 - 23:00', 'last_order_time': '16:00 - 17:00 브레이크타임'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '11:30-23:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('금', {'open_time': '11:30-23:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('토', {'open_time': '11:30-23:00', 'last_order_time': '16:00 - 17:00 브레이크타임'}), ('일', {'open_time': '11:30-23:00', 'last_order_time': '16:00 - 17:00 브레이크타임'}), ('수(7/12)', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '11:30-23:00', 'last_order_time': '16:00 - 17:00 브레이크타임'})]</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '23:30'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '23:30'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '23:30'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '23:30'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '00:30'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('일', {'open_time': '12:00 - 01:00', 'last_order_time': '15:00 - 17:00 브레이크타임'})]</t>
+          <t>[('월', {'open_time': '17:00-25:00', 'last_order_time': '23:30'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '23:30'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '23:30'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '23:30'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '00:30'}), ('토', {'open_time': '12:00-26:00', 'last_order_time': '15:00 - 17:00 브레이크타임'}), ('일', {'open_time': '12:00-25:00', 'last_order_time': '15:00 - 17:00 브레이크타임'})]</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 22:30', 'last_order_time': '21:30'}), ('수', {'open_time': '18:00 - 22:30', 'last_order_time': '21:30'}), ('목', {'open_time': '18:00 - 22:30', 'last_order_time': '21:30'}), ('금', {'open_time': '18:00 - 22:30', 'last_order_time': '21:30'}), ('토', {'open_time': '17:30 - 22:00', 'last_order_time': '21:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-22:30', 'last_order_time': '21:30'}), ('수', {'open_time': '18:00-22:30', 'last_order_time': '21:30'}), ('목', {'open_time': '18:00-22:30', 'last_order_time': '21:30'}), ('금', {'open_time': '18:00-22:30', 'last_order_time': '21:30'}), ('토', {'open_time': '17:30-22:00', 'last_order_time': '21:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('토', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '18:00-24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4424,7 +4424,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:30 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:30-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:30-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:30-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 01:00', 'last_order_time': '23:30'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 01:00', 'last_order_time': '23:30'}), ('목', {'open_time': '18:00 - 01:00', 'last_order_time': '23:30'}), ('금', {'open_time': '18:00 - 01:00', 'last_order_time': '23:30'}), ('토', {'open_time': '18:00 - 01:00', 'last_order_time': '23:30'}), ('일', {'open_time': '18:00 - 01:00', 'last_order_time': '23:30'})]</t>
+          <t>[('월', {'open_time': '18:00-25:00', 'last_order_time': '23:30'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-25:00', 'last_order_time': '23:30'}), ('목', {'open_time': '18:00-25:00', 'last_order_time': '23:30'}), ('금', {'open_time': '18:00-25:00', 'last_order_time': '23:30'}), ('토', {'open_time': '18:00-25:00', 'last_order_time': '23:30'}), ('일', {'open_time': '18:00-25:00', 'last_order_time': '23:30'}), ('화(7/11)', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 06:00', 'last_order_time': '05:50'}), ('화', {'open_time': '18:00 - 06:00', 'last_order_time': '05:50'}), ('수', {'open_time': '18:00 - 06:00', 'last_order_time': '05:50'}), ('목', {'open_time': '18:00 - 06:00', 'last_order_time': '05:50'}), ('금', {'open_time': '18:00 - 06:00', 'last_order_time': '05:50'}), ('토', {'open_time': '18:00 - 06:00', 'last_order_time': '05:50'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-30:00', 'last_order_time': '05:50'}), ('화', {'open_time': '18:00-30:00', 'last_order_time': '05:50'}), ('수', {'open_time': '18:00-30:00', 'last_order_time': '05:50'}), ('목', {'open_time': '18:00-30:00', 'last_order_time': '05:50'}), ('금', {'open_time': '18:00-30:00', 'last_order_time': '05:50'}), ('토', {'open_time': '18:00-30:00', 'last_order_time': '05:50'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'}), ('화(7/11)', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '19:30 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:30 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:30 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:30 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 04:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 04:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:30 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '19:30-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:30-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:30-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:30-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00-28:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00-28:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:30-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:30 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:30-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:30-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수요미식회 109회', {'open_time': '17.03.15.', 'last_order_time': '2017년 3월 15일'})]</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수요미식회 109회', {'open_time': '17.03.15.', 'last_order_time': '2017년 3월 15일'})]</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '19:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('토', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4968,7 +4968,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:10 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:10 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:10 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:10 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:10 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:10 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:10-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:10-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:10-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:10-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:10-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:10-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5160,7 +5160,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 00:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 00:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 00:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 00:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-24:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-24:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-24:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:30 - 01:00', 'last_order_time': '00:30'}), ('목', {'open_time': '19:30 - 01:00', 'last_order_time': '00:30'}), ('금', {'open_time': '19:30 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '19:30 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '19:30 - 01:00', 'last_order_time': '00:30'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:30-25:00', 'last_order_time': '00:30'}), ('목', {'open_time': '19:30-25:00', 'last_order_time': '00:30'}), ('금', {'open_time': '19:30-26:00', 'last_order_time': '01:30'}), ('토', {'open_time': '19:30-26:00', 'last_order_time': '01:30'}), ('일', {'open_time': '19:30-25:00', 'last_order_time': '00:30'})]</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 01:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:30 - 00:30', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-25:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-25:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:30-24:30', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토(7/15)', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('일(7/16)', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00-28:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00-28:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00-28:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00-28:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00-28:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-28:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-28:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('토', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:00-23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:00-23:00', 'last_order_time': '22:00'}), ('토', {'open_time': '17:00-23:00', 'last_order_time': '22:00'}), ('일', {'open_time': '17:00-23:00', 'last_order_time': '22:00'})]</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:30 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:30-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:30-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:30-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:30-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:30-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '18:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:30 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:30 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:30 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:30 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:30-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:30-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:30-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:30-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -5736,7 +5736,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '20:00 - 01:00', 'last_order_time': '00:30'}), ('수', {'open_time': '20:00 - 01:00', 'last_order_time': '00:30'}), ('목', {'open_time': '20:00 - 01:00', 'last_order_time': '00:30'}), ('금', {'open_time': '20:00 - 01:00', 'last_order_time': '00:30'}), ('토', {'open_time': '20:00 - 01:00', 'last_order_time': '00:30'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '20:00-25:00', 'last_order_time': '00:30'}), ('수', {'open_time': '20:00-25:00', 'last_order_time': '00:30'}), ('목', {'open_time': '20:00-25:00', 'last_order_time': '00:30'}), ('금', {'open_time': '20:00-25:00', 'last_order_time': '00:30'}), ('토', {'open_time': '20:00-25:00', 'last_order_time': '00:30'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00 - 01:30', 'last_order_time': '01:00'}), ('수', {'open_time': '19:00 - 01:30', 'last_order_time': '01:00'}), ('목', {'open_time': '19:00 - 01:30', 'last_order_time': '01:00'}), ('금', {'open_time': '19:00 - 03:30', 'last_order_time': '03:00'}), ('토', {'open_time': '18:00 - 03:30', 'last_order_time': '03:00'}), ('일', {'open_time': '18:00 - 00:30', 'last_order_time': '00:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00-25:30', 'last_order_time': '01:00'}), ('수', {'open_time': '19:00-25:30', 'last_order_time': '01:00'}), ('목', {'open_time': '19:00-25:30', 'last_order_time': '01:00'}), ('금', {'open_time': '19:00-27:30', 'last_order_time': '03:00'}), ('토', {'open_time': '18:00-27:30', 'last_order_time': '03:00'}), ('일', {'open_time': '18:00-24:30', 'last_order_time': '00:00'})]</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '15:00-27:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00-27:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00-27:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 23:50', 'last_order_time': '23:20'}), ('화', {'open_time': '17:00 - 23:50', 'last_order_time': '23:20'}), ('수', {'open_time': '17:00 - 23:50', 'last_order_time': '23:20'}), ('목', {'open_time': '17:00 - 23:50', 'last_order_time': '23:20'}), ('금', {'open_time': '17:00 - 23:50', 'last_order_time': '23:20'}), ('토', {'open_time': '17:00 - 23:00', 'last_order_time': '22:30'}), ('일', {'open_time': '17:00 - 23:00', 'last_order_time': '22:30'})]</t>
+          <t>[('월', {'open_time': '17:00-23:50', 'last_order_time': '23:20'}), ('화', {'open_time': '17:00-23:50', 'last_order_time': '23:20'}), ('수', {'open_time': '17:00-23:50', 'last_order_time': '23:20'}), ('목', {'open_time': '17:00-23:50', 'last_order_time': '23:20'}), ('금', {'open_time': '17:00-23:50', 'last_order_time': '23:20'}), ('토', {'open_time': '17:00-23:00', 'last_order_time': '22:30'}), ('일', {'open_time': '17:00-23:00', 'last_order_time': '22:30'})]</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -6024,7 +6024,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '19:30 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:30 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:30 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:30 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:30 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:30 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:30 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '19:30-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:30-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:30-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:30-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:30-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:30-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:30-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '12:00 - 22:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '12:00 - 22:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '12:00 - 22:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '12:00 - 22:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '12:00 - 22:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '12:00 - 22:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '12:00-22:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '12:00-22:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '12:00-22:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '12:00-22:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '12:00-22:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '12:00-22:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00-25:00', 'last_order_time': '00:00'})]</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '15:00-29:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00-29:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00-29:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00-29:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00-29:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00-29:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00-29:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '20:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '20:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '20:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '20:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '20:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '20:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '20:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '20:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '20:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '20:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '19:00-21:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00-21:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00-21:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00-21:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00-21:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00-21:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00-21:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '19:00-27:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '10:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '10:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '10:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '10:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '10:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '12:00 - 02:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '10:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '10:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '10:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '10:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '10:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '12:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '12:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-29:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-29:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-29:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-29:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-29:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-29:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-29:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('일', {'open_time': '17:00-24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -7016,7 +7016,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '17:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'})]</t>
+          <t>[('월', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00-27:00', 'last_order_time': '02:00'}), ('토', {'open_time': '17:00-27:00', 'last_order_time': '02:00'}), ('일', {'open_time': '17:00-25:00', 'last_order_time': '00:00'})]</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'})]</t>
+          <t>[('월', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00-25:00', 'last_order_time': '00:00'})]</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:00 - 01:00', 'last_order_time': '23:30'}), ('화', {'open_time': '16:00 - 01:00', 'last_order_time': '23:30'}), ('수', {'open_time': '16:00 - 01:00', 'last_order_time': '23:30'}), ('목', {'open_time': '16:00 - 01:00', 'last_order_time': '23:30'}), ('금', {'open_time': '16:00 - 02:00', 'last_order_time': '00:30'}), ('토', {'open_time': '15:00 - 02:00', 'last_order_time': '00:30'}), ('일', {'open_time': '16:00 - 01:00', 'last_order_time': '23:30'})]</t>
+          <t>[('월', {'open_time': '16:00-25:00', 'last_order_time': '23:30'}), ('화', {'open_time': '16:00-25:00', 'last_order_time': '23:30'}), ('수', {'open_time': '16:00-25:00', 'last_order_time': '23:30'}), ('목', {'open_time': '16:00-25:00', 'last_order_time': '23:30'}), ('금', {'open_time': '16:00-26:00', 'last_order_time': '00:30'}), ('토', {'open_time': '15:00-26:00', 'last_order_time': '00:30'}), ('일', {'open_time': '16:00-25:00', 'last_order_time': '23:30'})]</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-27:00', 'last_order_time': '02:00'}), ('화', {'open_time': '17:00-27:00', 'last_order_time': '02:00'}), ('수', {'open_time': '17:00-27:00', 'last_order_time': '02:00'}), ('목', {'open_time': '17:00-27:00', 'last_order_time': '02:00'}), ('금', {'open_time': '17:00-27:00', 'last_order_time': '02:00'}), ('토', {'open_time': '17:00-27:00', 'last_order_time': '02:00'}), ('일', {'open_time': '17:00-27:00', 'last_order_time': '02:00'})]</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '15:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '15:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '15:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '15:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '15:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -7368,7 +7368,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '18:00-24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -7464,7 +7464,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00 - 04:00', 'last_order_time': '03:00'}), ('토', {'open_time': '18:00 - 04:00', 'last_order_time': '03:00'}), ('일', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00-28:00', 'last_order_time': '03:00'}), ('토', {'open_time': '18:00-28:00', 'last_order_time': '03:00'}), ('일', {'open_time': '18:00-26:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -7592,7 +7592,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '15:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '15:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '15:00 - 03:00', 'last_order_time': '02:00'})]</t>
+          <t>[('월', {'open_time': '16:00-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '16:00-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '16:00-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '16:00-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '15:00-27:00', 'last_order_time': '02:00'}), ('토', {'open_time': '15:00-27:00', 'last_order_time': '02:00'}), ('일', {'open_time': '15:00-27:00', 'last_order_time': '02:00'})]</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -7656,7 +7656,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '15:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '15:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -7688,7 +7688,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:30-28:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:30-28:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:30-28:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:30-28:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:30-28:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:30-28:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:30-28:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00-26:30', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00-26:30', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00-26:30', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00-26:30', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00-26:30', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-26:30', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-26:30', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '17:00 - 23:00', 'last_order_time': '22:00'})]</t>
+          <t>[('월', {'open_time': '17:00-23:00', 'last_order_time': '22:00'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-23:00', 'last_order_time': '22:00'}), ('목', {'open_time': '17:00-23:00', 'last_order_time': '22:00'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '17:00-23:00', 'last_order_time': '22:00'})]</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -7784,7 +7784,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -7848,7 +7848,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -7880,7 +7880,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'})]</t>
+          <t>[('월', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '18:00-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '17:00-26:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-27:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '16:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '16:00-24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -8072,7 +8072,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00 - 02:00', 'last_order_time': '01:30'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('토', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:30'})]</t>
+          <t>[('월', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('수', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('목', {'open_time': '18:00-26:00', 'last_order_time': '01:30'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '01:30'}), ('토', {'open_time': '17:00-26:00', 'last_order_time': '01:30'}), ('일', {'open_time': '17:00-26:00', 'last_order_time': '01:30'})]</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '12:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '12:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '12:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '12:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '12:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '12:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '12:00 - 01:00', 'last_order_time': '00:00'})]</t>
+          <t>[('월', {'open_time': '12:00-25:00', 'last_order_time': '00:00'}), ('화', {'open_time': '12:00-25:00', 'last_order_time': '00:00'}), ('수', {'open_time': '12:00-25:00', 'last_order_time': '00:00'}), ('목', {'open_time': '12:00-25:00', 'last_order_time': '00:00'}), ('금', {'open_time': '12:00-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '12:00-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '12:00-25:00', 'last_order_time': '00:00'})]</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00 - 24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '18:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'}), ('월(7/17)', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -8232,7 +8232,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-28:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-28:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-28:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-28:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-28:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-28:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '17:00-28:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00 - 03:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '18:00-27:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -8328,7 +8328,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00 - 01:00', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '16:00-25:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('수', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('목', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('금', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('토', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('일', {'open_time': '정보 없음', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('토', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('일', {'open_time': '17:00-24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -8456,7 +8456,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:00 - 02:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '정보 없음', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '23:00'}), ('금', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('토', {'open_time': '16:00-26:00', 'last_order_time': '01:00'}), ('일', {'open_time': '16:00-24:00', 'last_order_time': '23:00'}), ('월(7/17)', {'open_time': '16:00-26:00', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 05:00', 'last_order_time': '04:00'}), ('화', {'open_time': '17:00 - 05:00', 'last_order_time': '04:00'}), ('수', {'open_time': '17:00 - 05:00', 'last_order_time': '04:00'}), ('목', {'open_time': '17:00 - 05:00', 'last_order_time': '04:00'}), ('금', {'open_time': '18:00 - 06:00', 'last_order_time': '05:00'}), ('토', {'open_time': '17:00 - 06:00', 'last_order_time': '05:00'}), ('일', {'open_time': '17:00 - 05:00', 'last_order_time': '04:00'})]</t>
+          <t>[('월', {'open_time': '17:00-29:00', 'last_order_time': '04:00'}), ('화', {'open_time': '17:00-29:00', 'last_order_time': '04:00'}), ('수', {'open_time': '17:00-29:00', 'last_order_time': '04:00'}), ('목', {'open_time': '17:00-29:00', 'last_order_time': '04:00'}), ('금', {'open_time': '18:00-30:00', 'last_order_time': '05:00'}), ('토', {'open_time': '17:00-30:00', 'last_order_time': '05:00'}), ('일', {'open_time': '17:00-29:00', 'last_order_time': '04:00'})]</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -8520,7 +8520,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('화', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('수', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00 - 03:00', 'last_order_time': '02:00'}), ('토', {'open_time': '17:00 - 03:00', 'last_order_time': '02:00'}), ('일', {'open_time': '17:00 - 02:00', 'last_order_time': '01:00'})]</t>
+          <t>[('월', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('화', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('수', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('목', {'open_time': '17:00-26:00', 'last_order_time': '01:00'}), ('금', {'open_time': '17:00-27:00', 'last_order_time': '02:00'}), ('토', {'open_time': '17:00-27:00', 'last_order_time': '02:00'}), ('일', {'open_time': '17:00-26:00', 'last_order_time': '01:00'})]</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('토', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -8616,7 +8616,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00 - 24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
+          <t>[('월', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('화', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('수', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('목', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('금', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('토', {'open_time': '17:00-24:00', 'last_order_time': '정보 없음'}), ('일', {'open_time': '휴무', 'last_order_time': '정보 없음'})]</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>[('월', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00 - 01:00', 'last_order_time': '00:00'}), ('토', {'open_time': '16:00 - 01:00', 'last_order_time': '00:00'}), ('일', {'open_time': '16:00 - 24:00', 'last_order_time': '23:00'})]</t>
+          <t>[('월', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('화', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('수', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('목', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('금', {'open_time': '17:00-25:00', 'last_order_time': '00:00'}), ('토', {'open_time': '16:00-25:00', 'last_order_time': '00:00'}), ('일', {'open_time': '16:00-24:00', 'last_order_time': '23:00'})]</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">

--- a/excel/합정_processed.xlsx
+++ b/excel/합정_processed.xlsx
@@ -546,10 +546,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -646,10 +644,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
+      <c r="C3" t="n">
+        <v>4.62</v>
       </c>
       <c r="D3" t="n">
         <v>285</v>
@@ -746,10 +742,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
+      <c r="C4" t="n">
+        <v>4.62</v>
       </c>
       <c r="D4" t="n">
         <v>285</v>
@@ -846,10 +840,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
+      <c r="C5" t="n">
+        <v>4.89</v>
       </c>
       <c r="D5" t="n">
         <v>1206</v>
@@ -946,10 +938,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>366</v>
@@ -1046,10 +1036,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
+      <c r="C7" t="n">
+        <v>4.44</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1146,10 +1134,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
+      <c r="C8" t="n">
+        <v>4.44</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1246,10 +1232,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
+      <c r="C9" t="n">
+        <v>4.56</v>
       </c>
       <c r="D9" t="n">
         <v>514</v>
@@ -1346,10 +1330,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>135</v>
@@ -1446,10 +1428,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
+      <c r="C11" t="n">
+        <v>4.89</v>
       </c>
       <c r="D11" t="n">
         <v>367</v>
@@ -1546,10 +1526,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
+      <c r="C12" t="n">
+        <v>4.89</v>
       </c>
       <c r="D12" t="n">
         <v>367</v>
@@ -1646,10 +1624,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
+      <c r="C13" t="n">
+        <v>4.73</v>
       </c>
       <c r="D13" t="n">
         <v>661</v>
@@ -1746,10 +1722,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
+      <c r="C14" t="n">
+        <v>4.37</v>
       </c>
       <c r="D14" t="n">
         <v>840</v>
@@ -1846,10 +1820,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
+      <c r="C15" t="n">
+        <v>4.56</v>
       </c>
       <c r="D15" t="n">
         <v>426</v>
@@ -1946,10 +1918,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
+      <c r="C16" t="n">
+        <v>4.16</v>
       </c>
       <c r="D16" t="n">
         <v>234</v>
@@ -2046,10 +2016,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
+      <c r="C17" t="n">
+        <v>4.16</v>
       </c>
       <c r="D17" t="n">
         <v>234</v>
@@ -2146,10 +2114,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
+      <c r="C18" t="n">
+        <v>4.42</v>
       </c>
       <c r="D18" t="n">
         <v>564</v>
@@ -2246,10 +2212,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
+      <c r="C19" t="n">
+        <v>4.34</v>
       </c>
       <c r="D19" t="n">
         <v>446</v>
@@ -2346,10 +2310,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
+      <c r="C20" t="n">
+        <v>4.39</v>
       </c>
       <c r="D20" t="n">
         <v>315</v>
@@ -2446,10 +2408,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
+      <c r="C21" t="n">
+        <v>4.39</v>
       </c>
       <c r="D21" t="n">
         <v>315</v>
@@ -2546,10 +2506,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
+      <c r="C22" t="n">
+        <v>4.7</v>
       </c>
       <c r="D22" t="n">
         <v>225</v>
@@ -2646,10 +2604,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
+      <c r="C23" t="n">
+        <v>4.57</v>
       </c>
       <c r="D23" t="n">
         <v>502</v>
@@ -2746,10 +2702,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
+      <c r="C24" t="n">
+        <v>4.61</v>
       </c>
       <c r="D24" t="n">
         <v>299</v>
@@ -2846,10 +2800,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
+      <c r="C25" t="n">
+        <v>4.61</v>
       </c>
       <c r="D25" t="n">
         <v>407</v>
@@ -2946,10 +2898,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
+      <c r="C26" t="n">
+        <v>4.61</v>
       </c>
       <c r="D26" t="n">
         <v>407</v>
@@ -3046,10 +2996,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
+      <c r="C27" t="n">
+        <v>4.96</v>
       </c>
       <c r="D27" t="n">
         <v>182</v>
@@ -3146,10 +3094,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
+      <c r="C28" t="n">
+        <v>4.47</v>
       </c>
       <c r="D28" t="n">
         <v>206</v>
@@ -3246,10 +3192,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C29" t="n">
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>160</v>
@@ -3346,10 +3290,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C30" t="n">
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>121</v>
@@ -3446,10 +3388,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
+      <c r="C31" t="n">
+        <v>4.49</v>
       </c>
       <c r="D31" t="n">
         <v>347</v>
@@ -3546,10 +3486,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
+      <c r="C32" t="n">
+        <v>4.49</v>
       </c>
       <c r="D32" t="n">
         <v>347</v>
@@ -3646,10 +3584,8 @@
           <t>포장마차</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
+      <c r="C33" t="n">
+        <v>4.49</v>
       </c>
       <c r="D33" t="n">
         <v>440</v>
@@ -3746,10 +3682,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
+      <c r="C34" t="n">
+        <v>4.74</v>
       </c>
       <c r="D34" t="n">
         <v>186</v>
@@ -3846,10 +3780,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
+      <c r="C35" t="n">
+        <v>4.85</v>
       </c>
       <c r="D35" t="n">
         <v>156</v>
@@ -3946,10 +3878,8 @@
           <t>포장마차</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C36" t="n">
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>122</v>
@@ -4046,10 +3976,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
+      <c r="C37" t="n">
+        <v>4.38</v>
       </c>
       <c r="D37" t="n">
         <v>392</v>
@@ -4146,10 +4074,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
+      <c r="C38" t="n">
+        <v>4.27</v>
       </c>
       <c r="D38" t="n">
         <v>262</v>
@@ -4246,10 +4172,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C39" t="n">
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>92</v>
@@ -4346,10 +4270,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C40" t="n">
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>130</v>
@@ -4446,10 +4368,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C41" t="n">
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>235</v>
@@ -4546,10 +4466,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
+      <c r="C42" t="n">
+        <v>4.5</v>
       </c>
       <c r="D42" t="n">
         <v>197</v>
@@ -4646,10 +4564,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
+      <c r="C43" t="n">
+        <v>4.5</v>
       </c>
       <c r="D43" t="n">
         <v>197</v>
@@ -4746,10 +4662,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
+      <c r="C44" t="n">
+        <v>4.36</v>
       </c>
       <c r="D44" t="n">
         <v>783</v>
@@ -4846,10 +4760,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
+      <c r="C45" t="n">
+        <v>4.44</v>
       </c>
       <c r="D45" t="n">
         <v>1012</v>
@@ -4946,10 +4858,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C46" t="n">
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>269</v>
@@ -5046,10 +4956,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="C47" t="n">
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>218</v>
@@ -5146,10 +5054,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="C48" t="n">
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>218</v>
@@ -5246,10 +5152,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C49" t="n">
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>113</v>
@@ -5346,10 +5250,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C50" t="n">
+        <v>0</v>
       </c>
       <c r="D50" t="n">
         <v>533</v>
@@ -5446,10 +5348,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C51" t="n">
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>362</v>
@@ -5546,10 +5446,8 @@
           <t>전통,민속주점</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
+      <c r="C52" t="n">
+        <v>4.79</v>
       </c>
       <c r="D52" t="n">
         <v>402</v>
@@ -5646,10 +5544,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
+      <c r="C53" t="n">
+        <v>4.79</v>
       </c>
       <c r="D53" t="n">
         <v>402</v>
@@ -5746,10 +5642,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
+      <c r="C54" t="n">
+        <v>4.44</v>
       </c>
       <c r="D54" t="n">
         <v>849</v>
@@ -5846,10 +5740,8 @@
           <t>전통,민속주점</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
+      <c r="C55" t="n">
+        <v>4.44</v>
       </c>
       <c r="D55" t="n">
         <v>849</v>
@@ -5946,10 +5838,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
+      <c r="C56" t="n">
+        <v>4.59</v>
       </c>
       <c r="D56" t="n">
         <v>1140</v>
@@ -6046,10 +5936,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
+      <c r="C57" t="n">
+        <v>4.62</v>
       </c>
       <c r="D57" t="n">
         <v>285</v>
@@ -6146,10 +6034,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
+      <c r="C58" t="n">
+        <v>4.62</v>
       </c>
       <c r="D58" t="n">
         <v>285</v>
@@ -6246,10 +6132,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
+      <c r="C59" t="n">
+        <v>4.89</v>
       </c>
       <c r="D59" t="n">
         <v>1206</v>
@@ -6346,10 +6230,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C60" t="n">
+        <v>0</v>
       </c>
       <c r="D60" t="n">
         <v>366</v>
@@ -6446,10 +6328,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
+      <c r="C61" t="n">
+        <v>4.44</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -6546,10 +6426,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
+      <c r="C62" t="n">
+        <v>4.44</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -6646,10 +6524,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
+      <c r="C63" t="n">
+        <v>4.56</v>
       </c>
       <c r="D63" t="n">
         <v>514</v>
@@ -6746,10 +6622,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C64" t="n">
+        <v>0</v>
       </c>
       <c r="D64" t="n">
         <v>135</v>
@@ -6846,10 +6720,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
+      <c r="C65" t="n">
+        <v>4.89</v>
       </c>
       <c r="D65" t="n">
         <v>367</v>
@@ -6946,10 +6818,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
+      <c r="C66" t="n">
+        <v>4.89</v>
       </c>
       <c r="D66" t="n">
         <v>367</v>
@@ -7046,10 +6916,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
+      <c r="C67" t="n">
+        <v>4.73</v>
       </c>
       <c r="D67" t="n">
         <v>661</v>
@@ -7146,10 +7014,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
+      <c r="C68" t="n">
+        <v>4.37</v>
       </c>
       <c r="D68" t="n">
         <v>840</v>
@@ -7246,10 +7112,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
+      <c r="C69" t="n">
+        <v>4.56</v>
       </c>
       <c r="D69" t="n">
         <v>426</v>
@@ -7346,10 +7210,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
+      <c r="C70" t="n">
+        <v>4.16</v>
       </c>
       <c r="D70" t="n">
         <v>234</v>
@@ -7446,10 +7308,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
+      <c r="C71" t="n">
+        <v>4.16</v>
       </c>
       <c r="D71" t="n">
         <v>234</v>
@@ -7546,10 +7406,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
+      <c r="C72" t="n">
+        <v>4.42</v>
       </c>
       <c r="D72" t="n">
         <v>564</v>
@@ -7646,10 +7504,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
+      <c r="C73" t="n">
+        <v>4.34</v>
       </c>
       <c r="D73" t="n">
         <v>446</v>
@@ -7746,10 +7602,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
+      <c r="C74" t="n">
+        <v>4.39</v>
       </c>
       <c r="D74" t="n">
         <v>315</v>
@@ -7846,10 +7700,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
+      <c r="C75" t="n">
+        <v>4.39</v>
       </c>
       <c r="D75" t="n">
         <v>315</v>
@@ -7946,10 +7798,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
+      <c r="C76" t="n">
+        <v>4.7</v>
       </c>
       <c r="D76" t="n">
         <v>225</v>
@@ -8046,10 +7896,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
+      <c r="C77" t="n">
+        <v>4.57</v>
       </c>
       <c r="D77" t="n">
         <v>502</v>
@@ -8146,10 +7994,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
+      <c r="C78" t="n">
+        <v>4.61</v>
       </c>
       <c r="D78" t="n">
         <v>299</v>
@@ -8246,10 +8092,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
+      <c r="C79" t="n">
+        <v>4.61</v>
       </c>
       <c r="D79" t="n">
         <v>407</v>
@@ -8346,10 +8190,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
+      <c r="C80" t="n">
+        <v>4.61</v>
       </c>
       <c r="D80" t="n">
         <v>407</v>
@@ -8446,10 +8288,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
+      <c r="C81" t="n">
+        <v>4.96</v>
       </c>
       <c r="D81" t="n">
         <v>182</v>
@@ -8546,10 +8386,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
+      <c r="C82" t="n">
+        <v>4.47</v>
       </c>
       <c r="D82" t="n">
         <v>206</v>
@@ -8646,10 +8484,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C83" t="n">
+        <v>0</v>
       </c>
       <c r="D83" t="n">
         <v>160</v>
@@ -8746,10 +8582,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C84" t="n">
+        <v>0</v>
       </c>
       <c r="D84" t="n">
         <v>121</v>
@@ -8846,10 +8680,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
+      <c r="C85" t="n">
+        <v>4.49</v>
       </c>
       <c r="D85" t="n">
         <v>347</v>
@@ -8946,10 +8778,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
+      <c r="C86" t="n">
+        <v>4.49</v>
       </c>
       <c r="D86" t="n">
         <v>347</v>
@@ -9046,10 +8876,8 @@
           <t>포장마차</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
+      <c r="C87" t="n">
+        <v>4.49</v>
       </c>
       <c r="D87" t="n">
         <v>440</v>
@@ -9146,10 +8974,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
+      <c r="C88" t="n">
+        <v>4.74</v>
       </c>
       <c r="D88" t="n">
         <v>186</v>
@@ -9246,10 +9072,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
+      <c r="C89" t="n">
+        <v>4.85</v>
       </c>
       <c r="D89" t="n">
         <v>156</v>
@@ -9346,10 +9170,8 @@
           <t>포장마차</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C90" t="n">
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>122</v>
@@ -9446,10 +9268,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
+      <c r="C91" t="n">
+        <v>4.38</v>
       </c>
       <c r="D91" t="n">
         <v>392</v>
@@ -9546,10 +9366,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
+      <c r="C92" t="n">
+        <v>4.27</v>
       </c>
       <c r="D92" t="n">
         <v>262</v>
@@ -9646,10 +9464,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C93" t="n">
+        <v>0</v>
       </c>
       <c r="D93" t="n">
         <v>92</v>
@@ -9746,10 +9562,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C94" t="n">
+        <v>0</v>
       </c>
       <c r="D94" t="n">
         <v>130</v>
@@ -9846,10 +9660,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C95" t="n">
+        <v>0</v>
       </c>
       <c r="D95" t="n">
         <v>235</v>
@@ -9946,10 +9758,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
+      <c r="C96" t="n">
+        <v>4.5</v>
       </c>
       <c r="D96" t="n">
         <v>197</v>
@@ -10046,10 +9856,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
+      <c r="C97" t="n">
+        <v>4.5</v>
       </c>
       <c r="D97" t="n">
         <v>197</v>
@@ -10146,10 +9954,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
+      <c r="C98" t="n">
+        <v>4.36</v>
       </c>
       <c r="D98" t="n">
         <v>783</v>
@@ -10246,10 +10052,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
+      <c r="C99" t="n">
+        <v>4.44</v>
       </c>
       <c r="D99" t="n">
         <v>1012</v>
@@ -10346,10 +10150,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C100" t="n">
+        <v>0</v>
       </c>
       <c r="D100" t="n">
         <v>269</v>
@@ -10446,10 +10248,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="C101" t="n">
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>218</v>
@@ -10546,10 +10346,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="C102" t="n">
+        <v>5</v>
       </c>
       <c r="D102" t="n">
         <v>218</v>
@@ -10646,10 +10444,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C103" t="n">
+        <v>0</v>
       </c>
       <c r="D103" t="n">
         <v>113</v>
@@ -10746,10 +10542,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C104" t="n">
+        <v>0</v>
       </c>
       <c r="D104" t="n">
         <v>533</v>
@@ -10846,10 +10640,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C105" t="n">
+        <v>0</v>
       </c>
       <c r="D105" t="n">
         <v>362</v>
@@ -10946,10 +10738,8 @@
           <t>전통,민속주점</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
+      <c r="C106" t="n">
+        <v>4.79</v>
       </c>
       <c r="D106" t="n">
         <v>402</v>
@@ -11046,10 +10836,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
+      <c r="C107" t="n">
+        <v>4.79</v>
       </c>
       <c r="D107" t="n">
         <v>402</v>
@@ -11146,10 +10934,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
+      <c r="C108" t="n">
+        <v>4.44</v>
       </c>
       <c r="D108" t="n">
         <v>849</v>
@@ -11246,10 +11032,8 @@
           <t>전통,민속주점</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
+      <c r="C109" t="n">
+        <v>4.44</v>
       </c>
       <c r="D109" t="n">
         <v>849</v>
@@ -11346,10 +11130,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
+      <c r="C110" t="n">
+        <v>4.59</v>
       </c>
       <c r="D110" t="n">
         <v>1140</v>
@@ -11446,10 +11228,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
+      <c r="C111" t="n">
+        <v>4.61</v>
       </c>
       <c r="D111" t="n">
         <v>407</v>
@@ -11546,10 +11326,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C112" t="n">
+        <v>0</v>
       </c>
       <c r="D112" t="n">
         <v>381</v>
@@ -11646,10 +11424,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C113" t="n">
+        <v>0</v>
       </c>
       <c r="D113" t="n">
         <v>18</v>
@@ -11746,10 +11522,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C114" t="n">
+        <v>0</v>
       </c>
       <c r="D114" t="n">
         <v>23</v>
@@ -11846,10 +11620,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
+      <c r="C115" t="n">
+        <v>4.88</v>
       </c>
       <c r="D115" t="n">
         <v>303</v>
@@ -11946,10 +11718,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
+      <c r="C116" t="n">
+        <v>4.88</v>
       </c>
       <c r="D116" t="n">
         <v>303</v>
@@ -12046,10 +11816,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
+      <c r="C117" t="n">
+        <v>4.43</v>
       </c>
       <c r="D117" t="n">
         <v>441</v>
@@ -12146,10 +11914,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
+      <c r="C118" t="n">
+        <v>4.52</v>
       </c>
       <c r="D118" t="n">
         <v>192</v>
@@ -12246,10 +12012,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
+      <c r="C119" t="n">
+        <v>4.63</v>
       </c>
       <c r="D119" t="n">
         <v>603</v>
@@ -12346,10 +12110,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C120" t="n">
+        <v>0</v>
       </c>
       <c r="D120" t="n">
         <v>60</v>
@@ -12446,10 +12208,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C121" t="n">
+        <v>0</v>
       </c>
       <c r="D121" t="n">
         <v>122</v>
@@ -12546,10 +12306,8 @@
           <t>생선회</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C122" t="n">
+        <v>0</v>
       </c>
       <c r="D122" t="n">
         <v>264</v>
@@ -12646,10 +12404,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
+      <c r="C123" t="n">
+        <v>4.63</v>
       </c>
       <c r="D123" t="n">
         <v>145</v>
@@ -12746,10 +12502,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
+      <c r="C124" t="n">
+        <v>4.63</v>
       </c>
       <c r="D124" t="n">
         <v>145</v>
@@ -12846,10 +12600,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
+      <c r="C125" t="n">
+        <v>4.41</v>
       </c>
       <c r="D125" t="n">
         <v>273</v>
@@ -12946,10 +12698,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
+      <c r="C126" t="n">
+        <v>4.59</v>
       </c>
       <c r="D126" t="n">
         <v>354</v>
@@ -13046,10 +12796,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
+      <c r="C127" t="n">
+        <v>4.59</v>
       </c>
       <c r="D127" t="n">
         <v>354</v>
@@ -13146,10 +12894,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C128" t="n">
+        <v>0</v>
       </c>
       <c r="D128" t="n">
         <v>30</v>
@@ -13246,10 +12992,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C129" t="n">
+        <v>0</v>
       </c>
       <c r="D129" t="n">
         <v>36</v>
@@ -13346,10 +13090,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
+      <c r="C130" t="n">
+        <v>4.69</v>
       </c>
       <c r="D130" t="n">
         <v>134</v>
@@ -13446,10 +13188,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
+      <c r="C131" t="n">
+        <v>4.69</v>
       </c>
       <c r="D131" t="n">
         <v>134</v>
@@ -13546,10 +13286,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C132" t="n">
+        <v>0</v>
       </c>
       <c r="D132" t="n">
         <v>32</v>
@@ -13646,10 +13384,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
+      <c r="C133" t="n">
+        <v>4.47</v>
       </c>
       <c r="D133" t="n">
         <v>307</v>
@@ -13746,10 +13482,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
+      <c r="C134" t="n">
+        <v>4.47</v>
       </c>
       <c r="D134" t="n">
         <v>307</v>
@@ -13846,10 +13580,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
+      <c r="C135" t="n">
+        <v>4.62</v>
       </c>
       <c r="D135" t="n">
         <v>285</v>
@@ -13946,10 +13678,8 @@
           <t>포장마차</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
+      <c r="C136" t="n">
+        <v>4.39</v>
       </c>
       <c r="D136" t="n">
         <v>66</v>
@@ -14046,10 +13776,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C137" t="n">
+        <v>0</v>
       </c>
       <c r="D137" t="n">
         <v>71</v>
@@ -14146,10 +13874,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
+      <c r="C138" t="n">
+        <v>4.2</v>
       </c>
       <c r="D138" t="n">
         <v>353</v>
@@ -14246,10 +13972,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
+      <c r="C139" t="n">
+        <v>4.2</v>
       </c>
       <c r="D139" t="n">
         <v>353</v>
@@ -14346,10 +14070,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
+      <c r="C140" t="n">
+        <v>4.42</v>
       </c>
       <c r="D140" t="n">
         <v>821</v>
@@ -14446,10 +14168,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
+      <c r="C141" t="n">
+        <v>4.2</v>
       </c>
       <c r="D141" t="n">
         <v>184</v>
@@ -14546,10 +14266,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
+      <c r="C142" t="n">
+        <v>4.2</v>
       </c>
       <c r="D142" t="n">
         <v>184</v>
@@ -14646,10 +14364,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
+      <c r="C143" t="n">
+        <v>4.31</v>
       </c>
       <c r="D143" t="n">
         <v>153</v>
@@ -14746,10 +14462,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
+      <c r="C144" t="n">
+        <v>4.31</v>
       </c>
       <c r="D144" t="n">
         <v>153</v>
@@ -14846,10 +14560,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
+      <c r="C145" t="n">
+        <v>4.87</v>
       </c>
       <c r="D145" t="n">
         <v>88</v>
@@ -14946,10 +14658,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C146" t="n">
+        <v>0</v>
       </c>
       <c r="D146" t="n">
         <v>10</v>
@@ -15046,10 +14756,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
+      <c r="C147" t="n">
+        <v>3.91</v>
       </c>
       <c r="D147" t="n">
         <v>117</v>
@@ -15146,10 +14854,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
+      <c r="C148" t="n">
+        <v>3.91</v>
       </c>
       <c r="D148" t="n">
         <v>117</v>
@@ -15246,10 +14952,8 @@
           <t>포장마차</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C149" t="n">
+        <v>0</v>
       </c>
       <c r="D149" t="n">
         <v>87</v>
@@ -15346,10 +15050,8 @@
           <t>오뎅,꼬치</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
+      <c r="C150" t="n">
+        <v>4.42</v>
       </c>
       <c r="D150" t="n">
         <v>95</v>
@@ -15446,10 +15148,8 @@
           <t>전통,민속주점</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
+      <c r="C151" t="n">
+        <v>4.42</v>
       </c>
       <c r="D151" t="n">
         <v>95</v>
@@ -15546,10 +15246,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
+      <c r="C152" t="n">
+        <v>4.31</v>
       </c>
       <c r="D152" t="n">
         <v>205</v>
@@ -15646,10 +15344,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
+      <c r="C153" t="n">
+        <v>4.03</v>
       </c>
       <c r="D153" t="n">
         <v>260</v>
@@ -15746,10 +15442,8 @@
           <t>오뎅,꼬치</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
+      <c r="C154" t="n">
+        <v>4.35</v>
       </c>
       <c r="D154" t="n">
         <v>158</v>
@@ -15846,10 +15540,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
+      <c r="C155" t="n">
+        <v>4.23</v>
       </c>
       <c r="D155" t="n">
         <v>223</v>
@@ -15946,10 +15638,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
+      <c r="C156" t="n">
+        <v>4.8</v>
       </c>
       <c r="D156" t="n">
         <v>31</v>
@@ -16046,10 +15736,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
+      <c r="C157" t="n">
+        <v>4.8</v>
       </c>
       <c r="D157" t="n">
         <v>31</v>
@@ -16146,10 +15834,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C158" t="n">
+        <v>0</v>
       </c>
       <c r="D158" t="n">
         <v>114</v>
@@ -16246,10 +15932,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C159" t="n">
+        <v>0</v>
       </c>
       <c r="D159" t="n">
         <v>5</v>
@@ -16346,10 +16030,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C160" t="n">
+        <v>0</v>
       </c>
       <c r="D160" t="n">
         <v>27</v>
@@ -16446,10 +16128,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
+      <c r="C161" t="n">
+        <v>4.01</v>
       </c>
       <c r="D161" t="n">
         <v>129</v>
@@ -16546,10 +16226,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
+      <c r="C162" t="n">
+        <v>4.01</v>
       </c>
       <c r="D162" t="n">
         <v>129</v>
@@ -16646,10 +16324,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
+      <c r="C163" t="n">
+        <v>4.54</v>
       </c>
       <c r="D163" t="n">
         <v>84</v>
@@ -16746,10 +16422,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
+      <c r="C164" t="n">
+        <v>4.68</v>
       </c>
       <c r="D164" t="n">
         <v>505</v>
@@ -16846,10 +16520,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
+      <c r="C165" t="n">
+        <v>4.68</v>
       </c>
       <c r="D165" t="n">
         <v>505</v>
@@ -16946,10 +16618,8 @@
           <t>포장마차</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
+      <c r="C166" t="n">
+        <v>4.48</v>
       </c>
       <c r="D166" t="n">
         <v>79</v>
@@ -17046,10 +16716,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
+      <c r="C167" t="n">
+        <v>4.43</v>
       </c>
       <c r="D167" t="n">
         <v>109</v>
@@ -17146,10 +16814,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C168" t="n">
+        <v>0</v>
       </c>
       <c r="D168" t="n">
         <v>23</v>
@@ -17246,10 +16912,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C169" t="n">
+        <v>0</v>
       </c>
       <c r="D169" t="n">
         <v>2</v>
@@ -17346,10 +17010,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
+      <c r="C170" t="n">
+        <v>4.52</v>
       </c>
       <c r="D170" t="n">
         <v>230</v>
@@ -17446,10 +17108,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
+      <c r="C171" t="n">
+        <v>4.52</v>
       </c>
       <c r="D171" t="n">
         <v>230</v>
@@ -17546,10 +17206,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
+      <c r="C172" t="n">
+        <v>4.36</v>
       </c>
       <c r="D172" t="n">
         <v>226</v>
@@ -17646,10 +17304,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
+      <c r="C173" t="n">
+        <v>4.36</v>
       </c>
       <c r="D173" t="n">
         <v>226</v>
@@ -17746,10 +17402,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
+      <c r="C174" t="n">
+        <v>4.43</v>
       </c>
       <c r="D174" t="n">
         <v>75</v>
@@ -17846,10 +17500,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C175" t="n">
+        <v>0</v>
       </c>
       <c r="D175" t="n">
         <v>34</v>
@@ -17946,10 +17598,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C176" t="n">
+        <v>0</v>
       </c>
       <c r="D176" t="n">
         <v>98</v>
@@ -18046,10 +17696,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
+      <c r="C177" t="n">
+        <v>4.9</v>
       </c>
       <c r="D177" t="n">
         <v>126</v>
@@ -18146,10 +17794,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
+      <c r="C178" t="n">
+        <v>4.9</v>
       </c>
       <c r="D178" t="n">
         <v>126</v>
@@ -18246,10 +17892,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
+      <c r="C179" t="n">
+        <v>4.51</v>
       </c>
       <c r="D179" t="n">
         <v>141</v>
@@ -18346,10 +17990,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C180" t="n">
+        <v>0</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -18446,10 +18088,8 @@
           <t>유흥주점</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C181" t="n">
+        <v>0</v>
       </c>
       <c r="D181" t="n">
         <v>6</v>
@@ -18546,10 +18186,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C182" t="n">
+        <v>0</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -18646,10 +18284,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
+      <c r="C183" t="n">
+        <v>4.33</v>
       </c>
       <c r="D183" t="n">
         <v>65</v>
@@ -18746,10 +18382,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
+      <c r="C184" t="n">
+        <v>4.33</v>
       </c>
       <c r="D184" t="n">
         <v>65</v>
@@ -18846,10 +18480,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C185" t="n">
+        <v>0</v>
       </c>
       <c r="D185" t="n">
         <v>4</v>
@@ -18946,10 +18578,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
+      <c r="C186" t="n">
+        <v>4.51</v>
       </c>
       <c r="D186" t="n">
         <v>110</v>
@@ -19046,10 +18676,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
+      <c r="C187" t="n">
+        <v>4.51</v>
       </c>
       <c r="D187" t="n">
         <v>110</v>
@@ -19146,10 +18774,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
+      <c r="C188" t="n">
+        <v>3.91</v>
       </c>
       <c r="D188" t="n">
         <v>57</v>
@@ -19246,10 +18872,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C189" t="n">
+        <v>0</v>
       </c>
       <c r="D189" t="n">
         <v>10</v>
@@ -19346,10 +18970,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C190" t="n">
+        <v>0</v>
       </c>
       <c r="D190" t="n">
         <v>9</v>
@@ -19446,10 +19068,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
+      <c r="C191" t="n">
+        <v>4.56</v>
       </c>
       <c r="D191" t="n">
         <v>56</v>
@@ -19546,10 +19166,8 @@
           <t>와인</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
+      <c r="C192" t="n">
+        <v>4.56</v>
       </c>
       <c r="D192" t="n">
         <v>56</v>
@@ -19646,10 +19264,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C193" t="n">
+        <v>0</v>
       </c>
       <c r="D193" t="n">
         <v>12</v>
@@ -19746,10 +19362,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C194" t="n">
+        <v>0</v>
       </c>
       <c r="D194" t="n">
         <v>7</v>
@@ -19846,10 +19460,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C195" t="n">
+        <v>0</v>
       </c>
       <c r="D195" t="n">
         <v>0</v>
@@ -19946,10 +19558,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C196" t="n">
+        <v>0</v>
       </c>
       <c r="D196" t="n">
         <v>1</v>
@@ -20046,10 +19656,8 @@
           <t>바(BAR)</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C197" t="n">
+        <v>0</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -20146,10 +19754,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C198" t="n">
+        <v>0</v>
       </c>
       <c r="D198" t="n">
         <v>6</v>
@@ -20246,10 +19852,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C199" t="n">
+        <v>0</v>
       </c>
       <c r="D199" t="n">
         <v>17</v>
@@ -20346,10 +19950,8 @@
           <t>포장마차</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C200" t="n">
+        <v>0</v>
       </c>
       <c r="D200" t="n">
         <v>2</v>
@@ -20446,10 +20048,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
+      <c r="C201" t="n">
+        <v>4.53</v>
       </c>
       <c r="D201" t="n">
         <v>17</v>
@@ -20546,10 +20146,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
+      <c r="C202" t="n">
+        <v>4.53</v>
       </c>
       <c r="D202" t="n">
         <v>17</v>
@@ -20646,10 +20244,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
+      <c r="C203" t="n">
+        <v>4.4</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
@@ -20746,10 +20342,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
+      <c r="C204" t="n">
+        <v>4.36</v>
       </c>
       <c r="D204" t="n">
         <v>440</v>
@@ -20846,10 +20440,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
+      <c r="C205" t="n">
+        <v>4.75</v>
       </c>
       <c r="D205" t="n">
         <v>926</v>
@@ -20946,10 +20538,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
+      <c r="C206" t="n">
+        <v>4.75</v>
       </c>
       <c r="D206" t="n">
         <v>926</v>
@@ -21046,10 +20636,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C207" t="n">
+        <v>0</v>
       </c>
       <c r="D207" t="n">
         <v>417</v>
@@ -21146,10 +20734,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
+      <c r="C208" t="n">
+        <v>4.5</v>
       </c>
       <c r="D208" t="n">
         <v>979</v>
@@ -21246,10 +20832,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
+      <c r="C209" t="n">
+        <v>4.5</v>
       </c>
       <c r="D209" t="n">
         <v>979</v>
@@ -21346,10 +20930,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
+      <c r="C210" t="n">
+        <v>4.73</v>
       </c>
       <c r="D210" t="n">
         <v>0</v>
@@ -21446,10 +21028,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
+      <c r="C211" t="n">
+        <v>4.83</v>
       </c>
       <c r="D211" t="n">
         <v>763</v>
@@ -21546,10 +21126,8 @@
           <t>술집</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
+      <c r="C212" t="n">
+        <v>4.39</v>
       </c>
       <c r="D212" t="n">
         <v>1397</v>
@@ -21646,10 +21224,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
+      <c r="C213" t="n">
+        <v>4.53</v>
       </c>
       <c r="D213" t="n">
         <v>497</v>
@@ -21746,10 +21322,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
+      <c r="C214" t="n">
+        <v>4.52</v>
       </c>
       <c r="D214" t="n">
         <v>678</v>
@@ -21846,10 +21420,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
+      <c r="C215" t="n">
+        <v>4.46</v>
       </c>
       <c r="D215" t="n">
         <v>752</v>
@@ -21946,10 +21518,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C216" t="n">
+        <v>0</v>
       </c>
       <c r="D216" t="n">
         <v>453</v>
@@ -22046,10 +21616,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
+      <c r="C217" t="n">
+        <v>4.51</v>
       </c>
       <c r="D217" t="n">
         <v>896</v>
@@ -22146,10 +21714,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
+      <c r="C218" t="n">
+        <v>4.51</v>
       </c>
       <c r="D218" t="n">
         <v>896</v>
@@ -22246,10 +21812,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
+      <c r="C219" t="n">
+        <v>4.87</v>
       </c>
       <c r="D219" t="n">
         <v>678</v>
@@ -22346,10 +21910,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C220" t="n">
+        <v>0</v>
       </c>
       <c r="D220" t="n">
         <v>745</v>
@@ -22446,10 +22008,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
+      <c r="C221" t="n">
+        <v>4.35</v>
       </c>
       <c r="D221" t="n">
         <v>1297</v>
@@ -22546,10 +22106,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
+      <c r="C222" t="n">
+        <v>4.35</v>
       </c>
       <c r="D222" t="n">
         <v>1297</v>
@@ -22646,10 +22204,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
+      <c r="C223" t="n">
+        <v>4.72</v>
       </c>
       <c r="D223" t="n">
         <v>691</v>
@@ -22746,10 +22302,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
+      <c r="C224" t="n">
+        <v>4.72</v>
       </c>
       <c r="D224" t="n">
         <v>691</v>
@@ -22846,10 +22400,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
+      <c r="C225" t="n">
+        <v>4.54</v>
       </c>
       <c r="D225" t="n">
         <v>396</v>
@@ -22946,10 +22498,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
+      <c r="C226" t="n">
+        <v>4.72</v>
       </c>
       <c r="D226" t="n">
         <v>476</v>
@@ -23046,10 +22596,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C227" t="n">
+        <v>0</v>
       </c>
       <c r="D227" t="n">
         <v>827</v>
@@ -23146,10 +22694,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
+      <c r="C228" t="n">
+        <v>4.83</v>
       </c>
       <c r="D228" t="n">
         <v>604</v>
@@ -23246,10 +22792,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
+      <c r="C229" t="n">
+        <v>4.83</v>
       </c>
       <c r="D229" t="n">
         <v>604</v>
@@ -23346,10 +22890,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
+      <c r="C230" t="n">
+        <v>4.7</v>
       </c>
       <c r="D230" t="n">
         <v>504</v>
@@ -23446,10 +22988,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C231" t="n">
+        <v>0</v>
       </c>
       <c r="D231" t="n">
         <v>653</v>
@@ -23546,10 +23086,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C232" t="n">
+        <v>0</v>
       </c>
       <c r="D232" t="n">
         <v>508</v>
@@ -23646,10 +23184,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
+      <c r="C233" t="n">
+        <v>4.43</v>
       </c>
       <c r="D233" t="n">
         <v>855</v>
@@ -23746,10 +23282,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
+      <c r="C234" t="n">
+        <v>4.43</v>
       </c>
       <c r="D234" t="n">
         <v>855</v>
@@ -23846,10 +23380,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C235" t="n">
+        <v>0</v>
       </c>
       <c r="D235" t="n">
         <v>392</v>
@@ -23946,10 +23478,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
+      <c r="C236" t="n">
+        <v>4.79</v>
       </c>
       <c r="D236" t="n">
         <v>484</v>
@@ -24046,10 +23576,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
+      <c r="C237" t="n">
+        <v>4.79</v>
       </c>
       <c r="D237" t="n">
         <v>484</v>
@@ -24146,10 +23674,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C238" t="n">
+        <v>0</v>
       </c>
       <c r="D238" t="n">
         <v>340</v>
@@ -24246,10 +23772,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C239" t="n">
+        <v>0</v>
       </c>
       <c r="D239" t="n">
         <v>316</v>
@@ -24346,10 +23870,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C240" t="n">
+        <v>0</v>
       </c>
       <c r="D240" t="n">
         <v>812</v>
@@ -24446,10 +23968,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C241" t="n">
+        <v>0</v>
       </c>
       <c r="D241" t="n">
         <v>623</v>
@@ -24546,10 +24066,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
+      <c r="C242" t="n">
+        <v>4.39</v>
       </c>
       <c r="D242" t="n">
         <v>824</v>
@@ -24646,10 +24164,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
+      <c r="C243" t="n">
+        <v>4.39</v>
       </c>
       <c r="D243" t="n">
         <v>824</v>
@@ -24746,10 +24262,8 @@
           <t>포장마차</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
+      <c r="C244" t="n">
+        <v>4.55</v>
       </c>
       <c r="D244" t="n">
         <v>584</v>
@@ -24846,10 +24360,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C245" t="n">
+        <v>0</v>
       </c>
       <c r="D245" t="n">
         <v>115</v>
@@ -24946,10 +24458,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C246" t="n">
+        <v>0</v>
       </c>
       <c r="D246" t="n">
         <v>328</v>
@@ -25046,10 +24556,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
+      <c r="C247" t="n">
+        <v>4.93</v>
       </c>
       <c r="D247" t="n">
         <v>627</v>
@@ -25146,10 +24654,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
+      <c r="C248" t="n">
+        <v>4.93</v>
       </c>
       <c r="D248" t="n">
         <v>627</v>
@@ -25246,10 +24752,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
+      <c r="C249" t="n">
+        <v>4.45</v>
       </c>
       <c r="D249" t="n">
         <v>730</v>
@@ -25346,10 +24850,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
+      <c r="C250" t="n">
+        <v>4.45</v>
       </c>
       <c r="D250" t="n">
         <v>730</v>
@@ -25446,10 +24948,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
+      <c r="C251" t="n">
+        <v>4.73</v>
       </c>
       <c r="D251" t="n">
         <v>756</v>
@@ -25546,10 +25046,8 @@
           <t>맥주,호프</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
+      <c r="C252" t="n">
+        <v>4.86</v>
       </c>
       <c r="D252" t="n">
         <v>877</v>
@@ -25646,10 +25144,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
+      <c r="C253" t="n">
+        <v>4.86</v>
       </c>
       <c r="D253" t="n">
         <v>877</v>
@@ -25746,10 +25242,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
+      <c r="C254" t="n">
+        <v>4.49</v>
       </c>
       <c r="D254" t="n">
         <v>483</v>
@@ -25846,10 +25340,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
+      <c r="C255" t="n">
+        <v>4.58</v>
       </c>
       <c r="D255" t="n">
         <v>568</v>
@@ -25946,10 +25438,8 @@
           <t>포장마차</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
+      <c r="C256" t="n">
+        <v>4.58</v>
       </c>
       <c r="D256" t="n">
         <v>568</v>
@@ -26046,10 +25536,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
+      <c r="C257" t="n">
+        <v>0</v>
       </c>
       <c r="D257" t="n">
         <v>214</v>
@@ -26146,10 +25634,8 @@
           <t>이자카야</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
+      <c r="C258" t="n">
+        <v>4.6</v>
       </c>
       <c r="D258" t="n">
         <v>504</v>
@@ -26246,10 +25732,8 @@
           <t>요리주점</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
+      <c r="C259" t="n">
+        <v>4.6</v>
       </c>
       <c r="D259" t="n">
         <v>504</v>
